--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6852,28 +6852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2496.572489805266</v>
+        <v>2642.834445823384</v>
       </c>
       <c r="AB2" t="n">
-        <v>3415.920621556648</v>
+        <v>3616.042682402745</v>
       </c>
       <c r="AC2" t="n">
-        <v>3089.909951709856</v>
+        <v>3270.93264394187</v>
       </c>
       <c r="AD2" t="n">
-        <v>2496572.489805266</v>
+        <v>2642834.445823384</v>
       </c>
       <c r="AE2" t="n">
-        <v>3415920.621556648</v>
+        <v>3616042.682402744</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.327416097305941e-07</v>
+        <v>1.17073763888504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>3089909.951709856</v>
+        <v>3270932.64394187</v>
       </c>
     </row>
     <row r="3">
@@ -6958,28 +6958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1462.432634613028</v>
+        <v>1572.10769928156</v>
       </c>
       <c r="AB3" t="n">
-        <v>2000.964848651934</v>
+        <v>2151.027110653787</v>
       </c>
       <c r="AC3" t="n">
-        <v>1809.995571868396</v>
+        <v>1945.736102198499</v>
       </c>
       <c r="AD3" t="n">
-        <v>1462432.634613028</v>
+        <v>1572107.69928156</v>
       </c>
       <c r="AE3" t="n">
-        <v>2000964.848651934</v>
+        <v>2151027.110653786</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.966990574817534e-07</v>
+        <v>1.659128025093224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.94733796296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1809995.571868396</v>
+        <v>1945736.102198499</v>
       </c>
     </row>
     <row r="4">
@@ -7064,28 +7064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1251.323382299046</v>
+        <v>1336.692676103345</v>
       </c>
       <c r="AB4" t="n">
-        <v>1712.115856153045</v>
+        <v>1828.921890163522</v>
       </c>
       <c r="AC4" t="n">
-        <v>1548.713921811494</v>
+        <v>1654.372151874309</v>
       </c>
       <c r="AD4" t="n">
-        <v>1251323.382299046</v>
+        <v>1336692.676103345</v>
       </c>
       <c r="AE4" t="n">
-        <v>1712115.856153045</v>
+        <v>1828921.890163522</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.001473253316127e-06</v>
+        <v>1.852987718783102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1548713.921811494</v>
+        <v>1654372.151874309</v>
       </c>
     </row>
     <row r="5">
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1153.068784282013</v>
+        <v>1238.35273723174</v>
       </c>
       <c r="AB5" t="n">
-        <v>1577.679580459203</v>
+        <v>1694.368847347482</v>
       </c>
       <c r="AC5" t="n">
-        <v>1427.108055587375</v>
+        <v>1532.660662618251</v>
       </c>
       <c r="AD5" t="n">
-        <v>1153068.784282013</v>
+        <v>1238352.73723174</v>
       </c>
       <c r="AE5" t="n">
-        <v>1577679.580459203</v>
+        <v>1694368.847347482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.057090232458283e-06</v>
+        <v>1.955893691523744e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1427108.055587375</v>
+        <v>1532660.662618251</v>
       </c>
     </row>
     <row r="6">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.144633791005</v>
+        <v>1188.538756991287</v>
       </c>
       <c r="AB6" t="n">
-        <v>1492.952225856694</v>
+        <v>1626.211161944788</v>
       </c>
       <c r="AC6" t="n">
-        <v>1350.466960792539</v>
+        <v>1471.007851050477</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091144.633791005</v>
+        <v>1188538.756991287</v>
       </c>
       <c r="AE6" t="n">
-        <v>1492952.225856693</v>
+        <v>1626211.161944787</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.091699854039663e-06</v>
+        <v>2.019930552747619e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.92071759259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1350466.960792539</v>
+        <v>1471007.851050477</v>
       </c>
     </row>
     <row r="7">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1054.880271540731</v>
+        <v>1140.249475836479</v>
       </c>
       <c r="AB7" t="n">
-        <v>1443.33372555512</v>
+        <v>1560.139637096048</v>
       </c>
       <c r="AC7" t="n">
-        <v>1305.583980519746</v>
+        <v>1411.242099801334</v>
       </c>
       <c r="AD7" t="n">
-        <v>1054880.271540731</v>
+        <v>1140249.475836479</v>
       </c>
       <c r="AE7" t="n">
-        <v>1443333.72555512</v>
+        <v>1560139.637096048</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.117643940627222e-06</v>
+        <v>2.067933905470827e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.59664351851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1305583.980519746</v>
+        <v>1411242.099801334</v>
       </c>
     </row>
     <row r="8">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1034.207610232118</v>
+        <v>1119.406222327273</v>
       </c>
       <c r="AB8" t="n">
-        <v>1415.048478339225</v>
+        <v>1531.620978105306</v>
       </c>
       <c r="AC8" t="n">
-        <v>1279.998237599541</v>
+        <v>1385.445221598479</v>
       </c>
       <c r="AD8" t="n">
-        <v>1034207.610232118</v>
+        <v>1119406.222327273</v>
       </c>
       <c r="AE8" t="n">
-        <v>1415048.478339225</v>
+        <v>1531620.978105306</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132769238070982e-06</v>
+        <v>2.095919665762899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.41435185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1279998.237599541</v>
+        <v>1385445.221598479</v>
       </c>
     </row>
     <row r="9">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1014.642068891447</v>
+        <v>1099.840680986602</v>
       </c>
       <c r="AB9" t="n">
-        <v>1388.278041506154</v>
+        <v>1504.850541272235</v>
       </c>
       <c r="AC9" t="n">
-        <v>1255.782733685275</v>
+        <v>1361.229717684212</v>
       </c>
       <c r="AD9" t="n">
-        <v>1014642.068891447</v>
+        <v>1099840.680986602</v>
       </c>
       <c r="AE9" t="n">
-        <v>1388278.041506154</v>
+        <v>1504850.541272235</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.146844167636702e-06</v>
+        <v>2.121961970479134e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.2494212962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1255782.733685275</v>
+        <v>1361229.717684212</v>
       </c>
     </row>
     <row r="10">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>999.513471520112</v>
+        <v>1072.687164710732</v>
       </c>
       <c r="AB10" t="n">
-        <v>1367.578427156082</v>
+        <v>1467.697902374998</v>
       </c>
       <c r="AC10" t="n">
-        <v>1237.058661476683</v>
+        <v>1327.622874499271</v>
       </c>
       <c r="AD10" t="n">
-        <v>999513.471520112</v>
+        <v>1072687.164710732</v>
       </c>
       <c r="AE10" t="n">
-        <v>1367578.427156082</v>
+        <v>1467697.902374998</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.157137772841482e-06</v>
+        <v>2.14100783512235e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.13368055555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1237058.661476683</v>
+        <v>1327622.874499271</v>
       </c>
     </row>
     <row r="11">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>985.8933176970536</v>
+        <v>1059.067010887674</v>
       </c>
       <c r="AB11" t="n">
-        <v>1348.942731816595</v>
+        <v>1449.06220703551</v>
       </c>
       <c r="AC11" t="n">
-        <v>1220.201530745033</v>
+        <v>1310.765743767621</v>
       </c>
       <c r="AD11" t="n">
-        <v>985893.3176970535</v>
+        <v>1059067.010887674</v>
       </c>
       <c r="AE11" t="n">
-        <v>1348942.731816595</v>
+        <v>1449062.20703551</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.166170936592616e-06</v>
+        <v>2.15772155307456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.03240740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1220201.530745033</v>
+        <v>1310765.743767621</v>
       </c>
     </row>
     <row r="12">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>963.7670999030674</v>
+        <v>1049.050963344243</v>
       </c>
       <c r="AB12" t="n">
-        <v>1318.668664491027</v>
+        <v>1435.357808909757</v>
       </c>
       <c r="AC12" t="n">
-        <v>1192.816777915097</v>
+        <v>1298.369274164746</v>
       </c>
       <c r="AD12" t="n">
-        <v>963767.0999030675</v>
+        <v>1049050.963344243</v>
       </c>
       <c r="AE12" t="n">
-        <v>1318668.664491027</v>
+        <v>1435357.808909757</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.172420625466948e-06</v>
+        <v>2.169285113750799e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>1192816.777915097</v>
+        <v>1298369.274164747</v>
       </c>
     </row>
     <row r="13">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>954.0105918625524</v>
+        <v>1039.294455303728</v>
       </c>
       <c r="AB13" t="n">
-        <v>1305.319379763237</v>
+        <v>1422.008524181968</v>
       </c>
       <c r="AC13" t="n">
-        <v>1180.741530185889</v>
+        <v>1286.294026435538</v>
       </c>
       <c r="AD13" t="n">
-        <v>954010.5918625523</v>
+        <v>1039294.455303728</v>
       </c>
       <c r="AE13" t="n">
-        <v>1305319.379763237</v>
+        <v>1422008.524181968</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.17761994646324e-06</v>
+        <v>2.178905218851199e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.90509259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>1180741.530185889</v>
+        <v>1286294.026435538</v>
       </c>
     </row>
     <row r="14">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>944.7629760715714</v>
+        <v>1030.046839512747</v>
       </c>
       <c r="AB14" t="n">
-        <v>1292.666383862002</v>
+        <v>1409.355528280732</v>
       </c>
       <c r="AC14" t="n">
-        <v>1169.296118454876</v>
+        <v>1274.848614704526</v>
       </c>
       <c r="AD14" t="n">
-        <v>944762.9760715715</v>
+        <v>1030046.839512747</v>
       </c>
       <c r="AE14" t="n">
-        <v>1292666.383862002</v>
+        <v>1409355.528280732</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.183554524974159e-06</v>
+        <v>2.189885742854686e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1169296.118454876</v>
+        <v>1274848.614704526</v>
       </c>
     </row>
     <row r="15">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>937.0993418679078</v>
+        <v>1022.383205309083</v>
       </c>
       <c r="AB15" t="n">
-        <v>1282.18066144887</v>
+        <v>1398.8698058676</v>
       </c>
       <c r="AC15" t="n">
-        <v>1159.81113867205</v>
+        <v>1265.363634921699</v>
       </c>
       <c r="AD15" t="n">
-        <v>937099.3418679078</v>
+        <v>1022383.205309083</v>
       </c>
       <c r="AE15" t="n">
-        <v>1282180.66144887</v>
+        <v>1398869.8058676</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.186915702183883e-06</v>
+        <v>2.196104800697368e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.80381944444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>1159811.13867205</v>
+        <v>1265363.634921699</v>
       </c>
     </row>
     <row r="16">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>927.6609955312745</v>
+        <v>1012.94485897245</v>
       </c>
       <c r="AB16" t="n">
-        <v>1269.266699600635</v>
+        <v>1385.955844019366</v>
       </c>
       <c r="AC16" t="n">
-        <v>1148.129667217751</v>
+        <v>1253.682163467401</v>
       </c>
       <c r="AD16" t="n">
-        <v>927660.9955312745</v>
+        <v>1012944.85897245</v>
       </c>
       <c r="AE16" t="n">
-        <v>1269266.699600635</v>
+        <v>1385955.844019366</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.190854581726529e-06</v>
+        <v>2.203392759106762e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1148129.667217751</v>
+        <v>1253682.163467401</v>
       </c>
     </row>
     <row r="17">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>920.6119563431627</v>
+        <v>1005.895819784338</v>
       </c>
       <c r="AB17" t="n">
-        <v>1259.6218932018</v>
+        <v>1376.31103762053</v>
       </c>
       <c r="AC17" t="n">
-        <v>1139.40534760505</v>
+        <v>1244.957843854699</v>
       </c>
       <c r="AD17" t="n">
-        <v>920611.9563431627</v>
+        <v>1005895.819784338</v>
       </c>
       <c r="AE17" t="n">
-        <v>1259621.8932018</v>
+        <v>1376311.03762053</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194740942875273e-06</v>
+        <v>2.210583544737364e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.71990740740741</v>
       </c>
       <c r="AH17" t="n">
-        <v>1139405.34760505</v>
+        <v>1244957.843854699</v>
       </c>
     </row>
     <row r="18">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>914.5295098646968</v>
+        <v>999.8133733058725</v>
       </c>
       <c r="AB18" t="n">
-        <v>1251.299621591362</v>
+        <v>1367.988766010093</v>
       </c>
       <c r="AC18" t="n">
-        <v>1131.877341916731</v>
+        <v>1237.42983816638</v>
       </c>
       <c r="AD18" t="n">
-        <v>914529.5098646968</v>
+        <v>999813.3733058724</v>
       </c>
       <c r="AE18" t="n">
-        <v>1251299.621591362</v>
+        <v>1367988.766010093</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.198102120084997e-06</v>
+        <v>2.216802602580046e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1131877.341916731</v>
+        <v>1237429.838166381</v>
       </c>
     </row>
     <row r="19">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>908.5333947280526</v>
+        <v>993.8172581692282</v>
       </c>
       <c r="AB19" t="n">
-        <v>1243.095472331476</v>
+        <v>1359.784616750206</v>
       </c>
       <c r="AC19" t="n">
-        <v>1124.456185147612</v>
+        <v>1230.008681397262</v>
       </c>
       <c r="AD19" t="n">
-        <v>908533.3947280525</v>
+        <v>993817.2581692282</v>
       </c>
       <c r="AE19" t="n">
-        <v>1243095.472331476</v>
+        <v>1359784.616750206</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.199887745477663e-06</v>
+        <v>2.220106477058972e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.66493055555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>1124456.185147612</v>
+        <v>1230008.681397262</v>
       </c>
     </row>
     <row r="20">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>901.2140509095329</v>
+        <v>986.4979143507086</v>
       </c>
       <c r="AB20" t="n">
-        <v>1233.080823212317</v>
+        <v>1349.769967631048</v>
       </c>
       <c r="AC20" t="n">
-        <v>1115.397320084738</v>
+        <v>1220.949816334388</v>
       </c>
       <c r="AD20" t="n">
-        <v>901214.0509095329</v>
+        <v>986497.9143507086</v>
       </c>
       <c r="AE20" t="n">
-        <v>1233080.823212317</v>
+        <v>1349769.967631048</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201778407658133e-06</v>
+        <v>2.223604697095481e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.64467592592593</v>
       </c>
       <c r="AH20" t="n">
-        <v>1115397.320084738</v>
+        <v>1220949.816334388</v>
       </c>
     </row>
     <row r="21">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>892.6732522455437</v>
+        <v>977.9571156867194</v>
       </c>
       <c r="AB21" t="n">
-        <v>1221.394925686803</v>
+        <v>1338.084070105533</v>
       </c>
       <c r="AC21" t="n">
-        <v>1104.826708217799</v>
+        <v>1210.379204467448</v>
       </c>
       <c r="AD21" t="n">
-        <v>892673.2522455438</v>
+        <v>977957.1156867193</v>
       </c>
       <c r="AE21" t="n">
-        <v>1221394.925686803</v>
+        <v>1338084.070105533</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.205664768806877e-06</v>
+        <v>2.230795482726083e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1104826.708217798</v>
+        <v>1210379.204467448</v>
       </c>
     </row>
     <row r="22">
@@ -8972,28 +8972,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>887.0967390472222</v>
+        <v>972.3806024883977</v>
       </c>
       <c r="AB22" t="n">
-        <v>1213.76489431046</v>
+        <v>1330.45403872919</v>
       </c>
       <c r="AC22" t="n">
-        <v>1097.924876327198</v>
+        <v>1203.477372576847</v>
       </c>
       <c r="AD22" t="n">
-        <v>887096.7390472222</v>
+        <v>972380.6024883977</v>
       </c>
       <c r="AE22" t="n">
-        <v>1213764.89431046</v>
+        <v>1330454.03872919</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.207765504562954e-06</v>
+        <v>2.23468239387776e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.58101851851852</v>
       </c>
       <c r="AH22" t="n">
-        <v>1097924.876327198</v>
+        <v>1203477.372576847</v>
       </c>
     </row>
     <row r="23">
@@ -9078,28 +9078,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>884.0684586469592</v>
+        <v>969.3523220881348</v>
       </c>
       <c r="AB23" t="n">
-        <v>1209.621467468518</v>
+        <v>1326.310611887249</v>
       </c>
       <c r="AC23" t="n">
-        <v>1094.176892327715</v>
+        <v>1199.729388577364</v>
       </c>
       <c r="AD23" t="n">
-        <v>884068.4586469593</v>
+        <v>969352.3220881348</v>
       </c>
       <c r="AE23" t="n">
-        <v>1209621.467468518</v>
+        <v>1326310.611887249</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.206925210260523e-06</v>
+        <v>2.233127629417089e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.58969907407407</v>
       </c>
       <c r="AH23" t="n">
-        <v>1094176.892327714</v>
+        <v>1199729.388577364</v>
       </c>
     </row>
     <row r="24">
@@ -9184,28 +9184,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>877.8051576688695</v>
+        <v>963.089021110045</v>
       </c>
       <c r="AB24" t="n">
-        <v>1201.051742752958</v>
+        <v>1317.740887171688</v>
       </c>
       <c r="AC24" t="n">
-        <v>1086.425050111323</v>
+        <v>1191.977546360973</v>
       </c>
       <c r="AD24" t="n">
-        <v>877805.1576688695</v>
+        <v>963089.021110045</v>
       </c>
       <c r="AE24" t="n">
-        <v>1201051.742752958</v>
+        <v>1317740.887171688</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.209236019592209e-06</v>
+        <v>2.237403231683934e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.56655092592593</v>
       </c>
       <c r="AH24" t="n">
-        <v>1086425.050111323</v>
+        <v>1191977.546360973</v>
       </c>
     </row>
     <row r="25">
@@ -9290,28 +9290,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>872.5260633788437</v>
+        <v>957.8099268200195</v>
       </c>
       <c r="AB25" t="n">
-        <v>1193.828653048142</v>
+        <v>1310.517797466872</v>
       </c>
       <c r="AC25" t="n">
-        <v>1079.891321950264</v>
+        <v>1185.443818199914</v>
       </c>
       <c r="AD25" t="n">
-        <v>872526.0633788437</v>
+        <v>957809.9268200195</v>
       </c>
       <c r="AE25" t="n">
-        <v>1193828.653048142</v>
+        <v>1310517.797466872</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.210969126590973e-06</v>
+        <v>2.240609933384067e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.54918981481481</v>
       </c>
       <c r="AH25" t="n">
-        <v>1079891.321950265</v>
+        <v>1185443.818199914</v>
       </c>
     </row>
     <row r="26">
@@ -9396,28 +9396,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>866.2864508358542</v>
+        <v>939.545395372495</v>
       </c>
       <c r="AB26" t="n">
-        <v>1185.291339894546</v>
+        <v>1285.527459766111</v>
       </c>
       <c r="AC26" t="n">
-        <v>1072.168797981854</v>
+        <v>1162.838523255154</v>
       </c>
       <c r="AD26" t="n">
-        <v>866286.4508358543</v>
+        <v>939545.3953724951</v>
       </c>
       <c r="AE26" t="n">
-        <v>1185291.339894546</v>
+        <v>1285527.459766111</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.213384972710462e-06</v>
+        <v>2.245079881208495e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.52314814814815</v>
       </c>
       <c r="AH26" t="n">
-        <v>1072168.797981854</v>
+        <v>1162838.523255154</v>
       </c>
     </row>
     <row r="27">
@@ -9502,28 +9502,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>862.8276960547465</v>
+        <v>936.0866405913874</v>
       </c>
       <c r="AB27" t="n">
-        <v>1180.558919013543</v>
+        <v>1280.795038885107</v>
       </c>
       <c r="AC27" t="n">
-        <v>1067.888032707739</v>
+        <v>1158.557757981039</v>
       </c>
       <c r="AD27" t="n">
-        <v>862827.6960547465</v>
+        <v>936086.6405913874</v>
       </c>
       <c r="AE27" t="n">
-        <v>1180558.919013543</v>
+        <v>1280795.038885107</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.212912307165345e-06</v>
+        <v>2.244205326199368e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.52893518518519</v>
       </c>
       <c r="AH27" t="n">
-        <v>1067888.032707739</v>
+        <v>1158557.757981039</v>
       </c>
     </row>
     <row r="28">
@@ -9608,28 +9608,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>860.5245533694533</v>
+        <v>933.783497906094</v>
       </c>
       <c r="AB28" t="n">
-        <v>1177.40765758404</v>
+        <v>1277.643777455605</v>
       </c>
       <c r="AC28" t="n">
-        <v>1065.037523246245</v>
+        <v>1155.707248519545</v>
       </c>
       <c r="AD28" t="n">
-        <v>860524.5533694533</v>
+        <v>933783.497906094</v>
       </c>
       <c r="AE28" t="n">
-        <v>1177407.65758404</v>
+        <v>1277643.777455605</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.214645414164109e-06</v>
+        <v>2.247412027899502e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.51157407407408</v>
       </c>
       <c r="AH28" t="n">
-        <v>1065037.523246245</v>
+        <v>1155707.248519545</v>
       </c>
     </row>
     <row r="29">
@@ -9714,28 +9714,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>863.6351255086585</v>
+        <v>936.8940700452994</v>
       </c>
       <c r="AB29" t="n">
-        <v>1181.663679613659</v>
+        <v>1281.899799485223</v>
       </c>
       <c r="AC29" t="n">
-        <v>1068.887356506721</v>
+        <v>1159.557081780021</v>
       </c>
       <c r="AD29" t="n">
-        <v>863635.1255086585</v>
+        <v>936894.0700452994</v>
       </c>
       <c r="AE29" t="n">
-        <v>1181663.679613659</v>
+        <v>1281899.799485223</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.214750450951913e-06</v>
+        <v>2.247606373457085e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH29" t="n">
-        <v>1068887.356506721</v>
+        <v>1159557.081780021</v>
       </c>
     </row>
   </sheetData>
@@ -10011,28 +10011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1871.665334971297</v>
+        <v>1989.30254580702</v>
       </c>
       <c r="AB2" t="n">
-        <v>2560.895083354665</v>
+        <v>2721.851505007566</v>
       </c>
       <c r="AC2" t="n">
-        <v>2316.486850838118</v>
+        <v>2462.081817512224</v>
       </c>
       <c r="AD2" t="n">
-        <v>1871665.334971297</v>
+        <v>1989302.54580702</v>
       </c>
       <c r="AE2" t="n">
-        <v>2560895.083354665</v>
+        <v>2721851.505007566</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.480634874239976e-07</v>
+        <v>1.425924457462478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2316486.850838118</v>
+        <v>2462081.817512223</v>
       </c>
     </row>
     <row r="3">
@@ -10117,28 +10117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1204.589947839501</v>
+        <v>1298.699644901239</v>
       </c>
       <c r="AB3" t="n">
-        <v>1648.173109391877</v>
+        <v>1776.938148738559</v>
       </c>
       <c r="AC3" t="n">
-        <v>1490.873781057003</v>
+        <v>1607.349665771306</v>
       </c>
       <c r="AD3" t="n">
-        <v>1204589.947839501</v>
+        <v>1298699.644901239</v>
       </c>
       <c r="AE3" t="n">
-        <v>1648173.109391876</v>
+        <v>1776938.148738559</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.934700363886427e-07</v>
+        <v>1.893707213970432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.82465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1490873.781057002</v>
+        <v>1607349.665771306</v>
       </c>
     </row>
     <row r="4">
@@ -10223,28 +10223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1053.82965054178</v>
+        <v>1136.09038412478</v>
       </c>
       <c r="AB4" t="n">
-        <v>1441.896219554227</v>
+        <v>1554.448984329925</v>
       </c>
       <c r="AC4" t="n">
-        <v>1304.283668074025</v>
+        <v>1406.094554948328</v>
       </c>
       <c r="AD4" t="n">
-        <v>1053829.65054178</v>
+        <v>1136090.38412478</v>
       </c>
       <c r="AE4" t="n">
-        <v>1441896.219554227</v>
+        <v>1554448.984329925</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.087242828842257e-06</v>
+        <v>2.072452628567007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.45891203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1304283.668074025</v>
+        <v>1406094.554948328</v>
       </c>
     </row>
     <row r="5">
@@ -10329,28 +10329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>980.610329705415</v>
+        <v>1062.956314634436</v>
       </c>
       <c r="AB5" t="n">
-        <v>1341.714314577454</v>
+        <v>1454.383724005802</v>
       </c>
       <c r="AC5" t="n">
-        <v>1213.662983502049</v>
+        <v>1315.579382627064</v>
       </c>
       <c r="AD5" t="n">
-        <v>980610.3297054149</v>
+        <v>1062956.314634436</v>
       </c>
       <c r="AE5" t="n">
-        <v>1341714.314577454</v>
+        <v>1454383.724005802</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.135161486399666e-06</v>
+        <v>2.163792985272788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.84837962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1213662.983502049</v>
+        <v>1315579.382627064</v>
       </c>
     </row>
     <row r="6">
@@ -10435,28 +10435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>942.9871620249007</v>
+        <v>1025.162554753329</v>
       </c>
       <c r="AB6" t="n">
-        <v>1290.236636739961</v>
+        <v>1402.672634393461</v>
       </c>
       <c r="AC6" t="n">
-        <v>1167.098262987991</v>
+        <v>1268.803526830356</v>
       </c>
       <c r="AD6" t="n">
-        <v>942987.1620249008</v>
+        <v>1025162.554753329</v>
       </c>
       <c r="AE6" t="n">
-        <v>1290236.636739961</v>
+        <v>1402672.634393461</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.165151394530834e-06</v>
+        <v>2.22095837858525e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.49247685185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1167098.262987991</v>
+        <v>1268803.526830356</v>
       </c>
     </row>
     <row r="7">
@@ -10541,28 +10541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>916.5075234130372</v>
+        <v>998.6829161414657</v>
       </c>
       <c r="AB7" t="n">
-        <v>1254.006026992001</v>
+        <v>1366.442024645501</v>
       </c>
       <c r="AC7" t="n">
-        <v>1134.325451784396</v>
+        <v>1236.030715626761</v>
       </c>
       <c r="AD7" t="n">
-        <v>916507.5234130372</v>
+        <v>998682.9161414658</v>
       </c>
       <c r="AE7" t="n">
-        <v>1254006.026992001</v>
+        <v>1366442.024645501</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.186013939317733e-06</v>
+        <v>2.260725608715658e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1134325.451784396</v>
+        <v>1236030.715626761</v>
       </c>
     </row>
     <row r="8">
@@ -10647,28 +10647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>895.4798375402156</v>
+        <v>966.0621998450702</v>
       </c>
       <c r="AB8" t="n">
-        <v>1225.235019504778</v>
+        <v>1321.808921484338</v>
       </c>
       <c r="AC8" t="n">
-        <v>1108.300308871391</v>
+        <v>1195.657333188345</v>
       </c>
       <c r="AD8" t="n">
-        <v>895479.8375402156</v>
+        <v>966062.1998450701</v>
       </c>
       <c r="AE8" t="n">
-        <v>1225235.019504778</v>
+        <v>1321808.921484338</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.202041154713919e-06</v>
+        <v>2.291275954779384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1108300.308871391</v>
+        <v>1195657.333188345</v>
       </c>
     </row>
     <row r="9">
@@ -10753,28 +10753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>867.7994261285563</v>
+        <v>950.0600702030055</v>
       </c>
       <c r="AB9" t="n">
-        <v>1187.36145943778</v>
+        <v>1299.91410174393</v>
       </c>
       <c r="AC9" t="n">
-        <v>1074.041348221313</v>
+        <v>1175.852124314389</v>
       </c>
       <c r="AD9" t="n">
-        <v>867799.4261285564</v>
+        <v>950060.0702030055</v>
       </c>
       <c r="AE9" t="n">
-        <v>1187361.45943778</v>
+        <v>1299914.10174393</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.213450358894254e-06</v>
+        <v>2.31302365875695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.95428240740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1074041.348221313</v>
+        <v>1175852.124314389</v>
       </c>
     </row>
     <row r="10">
@@ -10859,28 +10859,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>855.0650145276743</v>
+        <v>937.3256586021231</v>
       </c>
       <c r="AB10" t="n">
-        <v>1169.937675682864</v>
+        <v>1282.490317989013</v>
       </c>
       <c r="AC10" t="n">
-        <v>1058.280465933531</v>
+        <v>1160.091242026607</v>
       </c>
       <c r="AD10" t="n">
-        <v>855065.0145276743</v>
+        <v>937325.6586021231</v>
       </c>
       <c r="AE10" t="n">
-        <v>1169937.675682863</v>
+        <v>1282490.317989013</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22208875634508e-06</v>
+        <v>2.329489777482823e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1058280.465933531</v>
+        <v>1160091.242026608</v>
       </c>
     </row>
     <row r="11">
@@ -10965,28 +10965,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>844.5694314148705</v>
+        <v>926.8300754893194</v>
       </c>
       <c r="AB11" t="n">
-        <v>1155.577155835477</v>
+        <v>1268.129798141627</v>
       </c>
       <c r="AC11" t="n">
-        <v>1045.290493945263</v>
+        <v>1147.10127003834</v>
       </c>
       <c r="AD11" t="n">
-        <v>844569.4314148704</v>
+        <v>926830.0754893194</v>
       </c>
       <c r="AE11" t="n">
-        <v>1155577.155835477</v>
+        <v>1268129.798141627</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.227576040260384e-06</v>
+        <v>2.339949387491081e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.80671296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1045290.493945263</v>
+        <v>1147101.27003834</v>
       </c>
     </row>
     <row r="12">
@@ -11071,28 +11071,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>832.3147175923399</v>
+        <v>914.5753616667888</v>
       </c>
       <c r="AB12" t="n">
-        <v>1138.809715743674</v>
+        <v>1251.362358049823</v>
       </c>
       <c r="AC12" t="n">
-        <v>1030.123314802571</v>
+        <v>1131.934090895648</v>
       </c>
       <c r="AD12" t="n">
-        <v>832314.7175923398</v>
+        <v>914575.3616667888</v>
       </c>
       <c r="AE12" t="n">
-        <v>1138809.715743674</v>
+        <v>1251362.358049823</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235182176380607e-06</v>
+        <v>2.354447856809459e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.72858796296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>1030123.314802571</v>
+        <v>1131934.090895648</v>
       </c>
     </row>
     <row r="13">
@@ -11177,28 +11177,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>823.6821827186187</v>
+        <v>905.9428267930679</v>
       </c>
       <c r="AB13" t="n">
-        <v>1126.998300688888</v>
+        <v>1239.550942995038</v>
       </c>
       <c r="AC13" t="n">
-        <v>1019.43916462319</v>
+        <v>1121.249940716266</v>
       </c>
       <c r="AD13" t="n">
-        <v>823682.1827186188</v>
+        <v>905942.8267930679</v>
       </c>
       <c r="AE13" t="n">
-        <v>1126998.300688888</v>
+        <v>1239550.942995038</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238441949003561e-06</v>
+        <v>2.360661486517335e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.69386574074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>1019439.164623189</v>
+        <v>1121249.940716266</v>
       </c>
     </row>
     <row r="14">
@@ -11283,28 +11283,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>813.4717309936132</v>
+        <v>895.7323750680621</v>
       </c>
       <c r="AB14" t="n">
-        <v>1113.027910185397</v>
+        <v>1225.580552491547</v>
       </c>
       <c r="AC14" t="n">
-        <v>1006.802088581785</v>
+        <v>1108.612864674862</v>
       </c>
       <c r="AD14" t="n">
-        <v>813471.7309936131</v>
+        <v>895732.3750680621</v>
       </c>
       <c r="AE14" t="n">
-        <v>1113027.910185397</v>
+        <v>1225580.552491547</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244092221550012e-06</v>
+        <v>2.371431778010987e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.63599537037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>1006802.088581785</v>
+        <v>1108612.864674862</v>
       </c>
     </row>
     <row r="15">
@@ -11389,28 +11389,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>804.6024600113362</v>
+        <v>886.8631040857854</v>
       </c>
       <c r="AB15" t="n">
-        <v>1100.892582342826</v>
+        <v>1213.445224648975</v>
       </c>
       <c r="AC15" t="n">
-        <v>995.8249393964692</v>
+        <v>1097.635715489546</v>
       </c>
       <c r="AD15" t="n">
-        <v>804602.4600113363</v>
+        <v>886863.1040857853</v>
       </c>
       <c r="AE15" t="n">
-        <v>1100892.582342826</v>
+        <v>1213445.224648975</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.247351994172965e-06</v>
+        <v>2.377645407718864e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>995824.9393964692</v>
+        <v>1097635.715489546</v>
       </c>
     </row>
     <row r="16">
@@ -11495,28 +11495,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>795.6166141094383</v>
+        <v>877.8772581838872</v>
       </c>
       <c r="AB16" t="n">
-        <v>1088.597751552306</v>
+        <v>1201.150393858456</v>
       </c>
       <c r="AC16" t="n">
-        <v>984.7035100006932</v>
+        <v>1086.51428609377</v>
       </c>
       <c r="AD16" t="n">
-        <v>795616.6141094383</v>
+        <v>877877.2581838872</v>
       </c>
       <c r="AE16" t="n">
-        <v>1088597.751552306</v>
+        <v>1201150.393858456</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.251100732689361e-06</v>
+        <v>2.384791081882922e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.56365740740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>984703.5100006931</v>
+        <v>1086514.28609377</v>
       </c>
     </row>
     <row r="17">
@@ -11601,28 +11601,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>785.9156122260838</v>
+        <v>868.1762563005327</v>
       </c>
       <c r="AB17" t="n">
-        <v>1075.324412797502</v>
+        <v>1187.877055103652</v>
       </c>
       <c r="AC17" t="n">
-        <v>972.6969600674003</v>
+        <v>1074.507736160477</v>
       </c>
       <c r="AD17" t="n">
-        <v>785915.6122260838</v>
+        <v>868176.2563005327</v>
       </c>
       <c r="AE17" t="n">
-        <v>1075324.412797502</v>
+        <v>1187877.055103652</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.252947937175701e-06</v>
+        <v>2.388312138717385e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.5462962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>972696.9600674002</v>
+        <v>1074507.736160477</v>
       </c>
     </row>
     <row r="18">
@@ -11707,28 +11707,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>779.0289501436375</v>
+        <v>849.6965637945125</v>
       </c>
       <c r="AB18" t="n">
-        <v>1065.901777918211</v>
+        <v>1162.59232455042</v>
       </c>
       <c r="AC18" t="n">
-        <v>964.173608236237</v>
+        <v>1051.636144803903</v>
       </c>
       <c r="AD18" t="n">
-        <v>779028.9501436375</v>
+        <v>849696.5637945125</v>
       </c>
       <c r="AE18" t="n">
-        <v>1065901.777918211</v>
+        <v>1162592.32455042</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.255827402992643e-06</v>
+        <v>2.393800844959342e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.51736111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>964173.608236237</v>
+        <v>1051636.144803903</v>
       </c>
     </row>
     <row r="19">
@@ -11813,28 +11813,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>773.0398755258867</v>
+        <v>843.5368969761696</v>
       </c>
       <c r="AB19" t="n">
-        <v>1057.70726180688</v>
+        <v>1154.164396664243</v>
       </c>
       <c r="AC19" t="n">
-        <v>956.7611652414957</v>
+        <v>1044.012566526511</v>
       </c>
       <c r="AD19" t="n">
-        <v>773039.8755258867</v>
+        <v>843536.8969761695</v>
       </c>
       <c r="AE19" t="n">
-        <v>1057707.26180688</v>
+        <v>1154164.396664242</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.257891925653847e-06</v>
+        <v>2.397736143774331e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>956761.1652414957</v>
+        <v>1044012.566526511</v>
       </c>
     </row>
     <row r="20">
@@ -11919,28 +11919,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>773.032714895447</v>
+        <v>843.700328546322</v>
       </c>
       <c r="AB20" t="n">
-        <v>1057.697464316407</v>
+        <v>1154.388010948617</v>
       </c>
       <c r="AC20" t="n">
-        <v>956.7523028097633</v>
+        <v>1044.214839377429</v>
       </c>
       <c r="AD20" t="n">
-        <v>773032.714895447</v>
+        <v>843700.328546322</v>
       </c>
       <c r="AE20" t="n">
-        <v>1057697.464316407</v>
+        <v>1154388.010948617</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257239971129256e-06</v>
+        <v>2.396493417832755e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.50289351851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>956752.3028097632</v>
+        <v>1044214.839377429</v>
       </c>
     </row>
     <row r="21">
@@ -12025,28 +12025,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>776.0905513017512</v>
+        <v>846.7581649526264</v>
       </c>
       <c r="AB21" t="n">
-        <v>1061.881330989734</v>
+        <v>1158.571877621944</v>
       </c>
       <c r="AC21" t="n">
-        <v>960.5368671198817</v>
+        <v>1047.999403687548</v>
       </c>
       <c r="AD21" t="n">
-        <v>776090.5513017513</v>
+        <v>846758.1649526265</v>
       </c>
       <c r="AE21" t="n">
-        <v>1061881.330989734</v>
+        <v>1158571.877621944</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.25718564158554e-06</v>
+        <v>2.396389857337624e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.50578703703704</v>
       </c>
       <c r="AH21" t="n">
-        <v>960536.8671198817</v>
+        <v>1047999.403687548</v>
       </c>
     </row>
   </sheetData>
@@ -12322,28 +12322,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>857.0608831077367</v>
+        <v>940.7684230372637</v>
       </c>
       <c r="AB2" t="n">
-        <v>1172.668511125612</v>
+        <v>1287.20086017322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1060.750674274376</v>
+        <v>1164.352216676041</v>
       </c>
       <c r="AD2" t="n">
-        <v>857060.8831077367</v>
+        <v>940768.4230372637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1172668.511125612</v>
+        <v>1287200.86017322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117722036509542e-06</v>
+        <v>2.380455426628672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1060750.674274376</v>
+        <v>1164352.216676041</v>
       </c>
     </row>
     <row r="3">
@@ -12428,28 +12428,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.1249343027633</v>
+        <v>751.3690317410994</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.8404518737239</v>
+        <v>1028.056257290381</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.288661379148</v>
+        <v>929.9400109806052</v>
       </c>
       <c r="AD3" t="n">
-        <v>678124.9343027633</v>
+        <v>751369.0317410994</v>
       </c>
       <c r="AE3" t="n">
-        <v>927840.4518737239</v>
+        <v>1028056.257290381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.285468246577444e-06</v>
+        <v>2.737710954397916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>839288.661379148</v>
+        <v>929940.0109806051</v>
       </c>
     </row>
     <row r="4">
@@ -12534,28 +12534,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>626.875086670738</v>
+        <v>689.6558311264344</v>
       </c>
       <c r="AB4" t="n">
-        <v>857.7181493598817</v>
+        <v>943.6175336151357</v>
       </c>
       <c r="AC4" t="n">
-        <v>775.8587329999572</v>
+        <v>853.5600005824328</v>
       </c>
       <c r="AD4" t="n">
-        <v>626875.0866707381</v>
+        <v>689655.8311264344</v>
       </c>
       <c r="AE4" t="n">
-        <v>857718.1493598818</v>
+        <v>943617.5336151357</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.343909643941179e-06</v>
+        <v>2.8621758364975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05266203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>775858.7329999572</v>
+        <v>853560.0005824328</v>
       </c>
     </row>
     <row r="5">
@@ -12640,28 +12640,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>584.8365830717789</v>
+        <v>657.9953396555436</v>
       </c>
       <c r="AB5" t="n">
-        <v>800.1992141278988</v>
+        <v>900.2982524223577</v>
       </c>
       <c r="AC5" t="n">
-        <v>723.8293242181821</v>
+        <v>814.3750507877007</v>
       </c>
       <c r="AD5" t="n">
-        <v>584836.5830717789</v>
+        <v>657995.3396555436</v>
       </c>
       <c r="AE5" t="n">
-        <v>800199.2141278988</v>
+        <v>900298.2524223577</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3751309298772e-06</v>
+        <v>2.928669004839083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.75752314814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>723829.3242181821</v>
+        <v>814375.0507877007</v>
       </c>
     </row>
     <row r="6">
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>561.6089451563267</v>
+        <v>634.7677017400913</v>
       </c>
       <c r="AB6" t="n">
-        <v>768.4181352009142</v>
+        <v>868.5171734953731</v>
       </c>
       <c r="AC6" t="n">
-        <v>695.0813868589646</v>
+        <v>785.627113428483</v>
       </c>
       <c r="AD6" t="n">
-        <v>561608.9451563268</v>
+        <v>634767.7017400913</v>
       </c>
       <c r="AE6" t="n">
-        <v>768418.1352009142</v>
+        <v>868517.1734953731</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392348105034151e-06</v>
+        <v>2.965337082138131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.59837962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>695081.3868589646</v>
+        <v>785627.113428483</v>
       </c>
     </row>
     <row r="7">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>559.1798886412937</v>
+        <v>632.3386452250583</v>
       </c>
       <c r="AB7" t="n">
-        <v>765.0945929146357</v>
+        <v>865.1936312090945</v>
       </c>
       <c r="AC7" t="n">
-        <v>692.0750387838676</v>
+        <v>782.6207653533861</v>
       </c>
       <c r="AD7" t="n">
-        <v>559179.8886412937</v>
+        <v>632338.6452250583</v>
       </c>
       <c r="AE7" t="n">
-        <v>765094.5929146357</v>
+        <v>865193.6312090945</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.395803664836779e-06</v>
+        <v>2.972696520187587e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.56655092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>692075.0387838676</v>
+        <v>782620.7653533861</v>
       </c>
     </row>
   </sheetData>
@@ -13149,28 +13149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1154.6865502552</v>
+        <v>1253.262122470411</v>
       </c>
       <c r="AB2" t="n">
-        <v>1579.893079234514</v>
+        <v>1714.768525986686</v>
       </c>
       <c r="AC2" t="n">
-        <v>1429.110301146235</v>
+        <v>1551.113424559258</v>
       </c>
       <c r="AD2" t="n">
-        <v>1154686.5502552</v>
+        <v>1253262.122470411</v>
       </c>
       <c r="AE2" t="n">
-        <v>1579893.079234514</v>
+        <v>1714768.525986686</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.708104350807459e-07</v>
+        <v>1.971080823119369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.28587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1429110.301146235</v>
+        <v>1551113.424559257</v>
       </c>
     </row>
     <row r="3">
@@ -13255,28 +13255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>856.6717573157977</v>
+        <v>933.3890782931794</v>
       </c>
       <c r="AB3" t="n">
-        <v>1172.136092050063</v>
+        <v>1277.10411514065</v>
       </c>
       <c r="AC3" t="n">
-        <v>1060.269068528141</v>
+        <v>1155.219090818509</v>
       </c>
       <c r="AD3" t="n">
-        <v>856671.7573157976</v>
+        <v>933389.0782931794</v>
       </c>
       <c r="AE3" t="n">
-        <v>1172136.092050063</v>
+        <v>1277104.11514065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17142177954244e-06</v>
+        <v>2.378391210070196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.32581018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1060269.068528141</v>
+        <v>1155219.090818509</v>
       </c>
     </row>
     <row r="4">
@@ -13361,28 +13361,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>774.2831067187989</v>
+        <v>851.0856790422013</v>
       </c>
       <c r="AB4" t="n">
-        <v>1059.408305572511</v>
+        <v>1164.492973315747</v>
       </c>
       <c r="AC4" t="n">
-        <v>958.2998637775655</v>
+        <v>1053.355398318645</v>
       </c>
       <c r="AD4" t="n">
-        <v>774283.1067187989</v>
+        <v>851085.6790422013</v>
       </c>
       <c r="AE4" t="n">
-        <v>1059408.305572511</v>
+        <v>1164492.973315747</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.241598052106375e-06</v>
+        <v>2.520873305534348e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>958299.8637775655</v>
+        <v>1053355.398318645</v>
       </c>
     </row>
     <row r="5">
@@ -13467,28 +13467,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>735.5718678776785</v>
+        <v>801.4027336634315</v>
       </c>
       <c r="AB5" t="n">
-        <v>1006.441880770764</v>
+        <v>1096.514575591659</v>
       </c>
       <c r="AC5" t="n">
-        <v>910.3884802200533</v>
+        <v>991.8647634650623</v>
       </c>
       <c r="AD5" t="n">
-        <v>735571.8678776785</v>
+        <v>801402.7336634315</v>
       </c>
       <c r="AE5" t="n">
-        <v>1006441.880770764</v>
+        <v>1096514.575591658</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279180055925738e-06</v>
+        <v>2.597177766576307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.11921296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>910388.4802200533</v>
+        <v>991864.7634650624</v>
       </c>
     </row>
     <row r="6">
@@ -13573,28 +13573,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.4217339767297</v>
+        <v>776.1389654455604</v>
       </c>
       <c r="AB6" t="n">
-        <v>956.9796727361362</v>
+        <v>1061.947573357175</v>
       </c>
       <c r="AC6" t="n">
-        <v>865.646875899605</v>
+        <v>960.5967874087456</v>
       </c>
       <c r="AD6" t="n">
-        <v>699421.7339767297</v>
+        <v>776138.9654455604</v>
       </c>
       <c r="AE6" t="n">
-        <v>956979.6727361362</v>
+        <v>1061947.573357175</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301624863762303e-06</v>
+        <v>2.642748486365255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.89351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>865646.875899605</v>
+        <v>960596.7874087456</v>
       </c>
     </row>
     <row r="7">
@@ -13679,28 +13679,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>680.1179460108716</v>
+        <v>756.8351774797022</v>
       </c>
       <c r="AB7" t="n">
-        <v>930.5673784182285</v>
+        <v>1035.535279039267</v>
       </c>
       <c r="AC7" t="n">
-        <v>841.7553338815104</v>
+        <v>936.7052453906513</v>
       </c>
       <c r="AD7" t="n">
-        <v>680117.9460108716</v>
+        <v>756835.1774797023</v>
       </c>
       <c r="AE7" t="n">
-        <v>930567.3784182285</v>
+        <v>1035535.279039267</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316240087469833e-06</v>
+        <v>2.672422443437127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.74884259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>841755.3338815104</v>
+        <v>936705.2453906513</v>
       </c>
     </row>
     <row r="8">
@@ -13785,28 +13785,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.6464880988384</v>
+        <v>737.3637195676689</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.9256706828883</v>
+        <v>1008.893571303927</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.6562733405594</v>
+        <v>912.6061848497002</v>
       </c>
       <c r="AD8" t="n">
-        <v>660646.4880988384</v>
+        <v>737363.7195676689</v>
       </c>
       <c r="AE8" t="n">
-        <v>903925.6706828882</v>
+        <v>1008893.571303927</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.329405388190505e-06</v>
+        <v>2.699152555561394e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.6244212962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>817656.2733405594</v>
+        <v>912606.1848497002</v>
       </c>
     </row>
     <row r="9">
@@ -13891,28 +13891,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>646.8338148892839</v>
+        <v>723.5510463581147</v>
       </c>
       <c r="AB9" t="n">
-        <v>885.0265618254414</v>
+        <v>989.99446244648</v>
       </c>
       <c r="AC9" t="n">
-        <v>800.5608689074013</v>
+        <v>895.5107804165419</v>
       </c>
       <c r="AD9" t="n">
-        <v>646833.8148892839</v>
+        <v>723551.0463581147</v>
       </c>
       <c r="AE9" t="n">
-        <v>885026.5618254414</v>
+        <v>989994.4624464801</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336770996963744e-06</v>
+        <v>2.714107287895234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.55497685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>800560.8689074013</v>
+        <v>895510.780416542</v>
       </c>
     </row>
     <row r="10">
@@ -13997,28 +13997,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>635.4230588373426</v>
+        <v>701.3391759691162</v>
       </c>
       <c r="AB10" t="n">
-        <v>869.4138619881471</v>
+        <v>959.6032014616902</v>
       </c>
       <c r="AC10" t="n">
-        <v>786.4382232300167</v>
+        <v>868.0200187257379</v>
       </c>
       <c r="AD10" t="n">
-        <v>635423.0588373427</v>
+        <v>701339.1759691163</v>
       </c>
       <c r="AE10" t="n">
-        <v>869413.8619881471</v>
+        <v>959603.2014616902</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.340830781326947e-06</v>
+        <v>2.722350053748533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.51446759259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>786438.2232300167</v>
+        <v>868020.0187257379</v>
       </c>
     </row>
     <row r="11">
@@ -14103,28 +14103,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>637.4880450301113</v>
+        <v>703.4041621618849</v>
       </c>
       <c r="AB11" t="n">
-        <v>872.2392671978541</v>
+        <v>962.4286066713973</v>
       </c>
       <c r="AC11" t="n">
-        <v>788.9939757319904</v>
+        <v>870.5757712277116</v>
       </c>
       <c r="AD11" t="n">
-        <v>637488.0450301112</v>
+        <v>703404.1621618848</v>
       </c>
       <c r="AE11" t="n">
-        <v>872239.2671978541</v>
+        <v>962428.6066713973</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.342222707394331e-06</v>
+        <v>2.725176144898234e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.50289351851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>788993.9757319904</v>
+        <v>870575.7712277116</v>
       </c>
     </row>
   </sheetData>
@@ -14400,28 +14400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.9856328943619</v>
+        <v>749.2721984157382</v>
       </c>
       <c r="AB2" t="n">
-        <v>915.3356564892272</v>
+        <v>1025.187277428864</v>
       </c>
       <c r="AC2" t="n">
-        <v>827.9773061155571</v>
+        <v>927.3448425304331</v>
       </c>
       <c r="AD2" t="n">
-        <v>668985.6328943619</v>
+        <v>749272.1984157382</v>
       </c>
       <c r="AE2" t="n">
-        <v>915335.6564892272</v>
+        <v>1025187.277428864</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240307658137113e-06</v>
+        <v>2.761922892767353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>827977.3061155571</v>
+        <v>927344.8425304331</v>
       </c>
     </row>
     <row r="3">
@@ -14506,28 +14506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.6686030210263</v>
+        <v>612.9476223115383</v>
       </c>
       <c r="AB3" t="n">
-        <v>756.1855646713378</v>
+        <v>838.6619781872619</v>
       </c>
       <c r="AC3" t="n">
-        <v>684.0162756922105</v>
+        <v>758.6212560585478</v>
       </c>
       <c r="AD3" t="n">
-        <v>552668.6030210264</v>
+        <v>612947.6223115383</v>
       </c>
       <c r="AE3" t="n">
-        <v>756185.5646713378</v>
+        <v>838661.9781872618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382541020223094e-06</v>
+        <v>3.078648808537771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>684016.2756922104</v>
+        <v>758621.2560585479</v>
       </c>
     </row>
     <row r="4">
@@ -14612,28 +14612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>500.6845631646976</v>
+        <v>570.9246403890804</v>
       </c>
       <c r="AB4" t="n">
-        <v>685.0587079659288</v>
+        <v>781.1642803978358</v>
       </c>
       <c r="AC4" t="n">
-        <v>619.6776663635951</v>
+        <v>706.611057847619</v>
       </c>
       <c r="AD4" t="n">
-        <v>500684.5631646976</v>
+        <v>570924.6403890804</v>
       </c>
       <c r="AE4" t="n">
-        <v>685058.7079659287</v>
+        <v>781164.2803978358</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.43051880769964e-06</v>
+        <v>3.185485970032705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>619677.6663635951</v>
+        <v>706611.0578476191</v>
       </c>
     </row>
     <row r="5">
@@ -14718,28 +14718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.6171591332826</v>
+        <v>568.8572363576654</v>
       </c>
       <c r="AB5" t="n">
-        <v>682.229994562718</v>
+        <v>778.3355669946251</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.1189213974625</v>
+        <v>704.0523128814866</v>
       </c>
       <c r="AD5" t="n">
-        <v>498617.1591332826</v>
+        <v>568857.2363576654</v>
       </c>
       <c r="AE5" t="n">
-        <v>682229.9945627181</v>
+        <v>778335.566994625</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434611401119555e-06</v>
+        <v>3.194599376196972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.69965277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>617118.9213974625</v>
+        <v>704052.3128814866</v>
       </c>
     </row>
   </sheetData>
@@ -15015,28 +15015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2003.911256662038</v>
+        <v>2134.560790265548</v>
       </c>
       <c r="AB2" t="n">
-        <v>2741.839787690238</v>
+        <v>2920.600243417191</v>
       </c>
       <c r="AC2" t="n">
-        <v>2480.162446549392</v>
+        <v>2641.862255273641</v>
       </c>
       <c r="AD2" t="n">
-        <v>2003911.256662038</v>
+        <v>2134560.790265548</v>
       </c>
       <c r="AE2" t="n">
-        <v>2741839.787690238</v>
+        <v>2920600.243417191</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.175995829423514e-07</v>
+        <v>1.356811220046292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.71006944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2480162.446549392</v>
+        <v>2641862.255273641</v>
       </c>
     </row>
     <row r="3">
@@ -15121,28 +15121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1275.934823839813</v>
+        <v>1370.867415114528</v>
       </c>
       <c r="AB3" t="n">
-        <v>1745.790316249293</v>
+        <v>1875.681275761701</v>
       </c>
       <c r="AC3" t="n">
-        <v>1579.174538698558</v>
+        <v>1696.668887338207</v>
       </c>
       <c r="AD3" t="n">
-        <v>1275934.823839813</v>
+        <v>1370867.415114528</v>
       </c>
       <c r="AE3" t="n">
-        <v>1745790.316249293</v>
+        <v>1875681.275761701</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.677472166721056e-07</v>
+        <v>1.829781277694481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1579174.538698558</v>
+        <v>1696668.887338207</v>
       </c>
     </row>
     <row r="4">
@@ -15227,28 +15227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1098.936867135439</v>
+        <v>1193.869368901602</v>
       </c>
       <c r="AB4" t="n">
-        <v>1503.613903287621</v>
+        <v>1633.50474033048</v>
       </c>
       <c r="AC4" t="n">
-        <v>1360.111102693217</v>
+        <v>1477.605340551641</v>
       </c>
       <c r="AD4" t="n">
-        <v>1098936.867135439</v>
+        <v>1193869.368901602</v>
       </c>
       <c r="AE4" t="n">
-        <v>1503613.903287621</v>
+        <v>1633504.74033048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064984975285092e-06</v>
+        <v>2.013634898898233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.62962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1360111.102693217</v>
+        <v>1477605.340551641</v>
       </c>
     </row>
     <row r="5">
@@ -15333,28 +15333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1019.352229025064</v>
+        <v>1114.199389936655</v>
       </c>
       <c r="AB5" t="n">
-        <v>1394.722690398568</v>
+        <v>1524.49676031923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1261.612314332519</v>
+        <v>1379.000929159003</v>
       </c>
       <c r="AD5" t="n">
-        <v>1019352.229025064</v>
+        <v>1114199.389936655</v>
       </c>
       <c r="AE5" t="n">
-        <v>1394722.690398568</v>
+        <v>1524496.76031923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.115111416740624e-06</v>
+        <v>2.108412153239702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.96990740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1261612.314332519</v>
+        <v>1379000.929159003</v>
       </c>
     </row>
     <row r="6">
@@ -15439,28 +15439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>979.6583518362304</v>
+        <v>1062.798964129373</v>
       </c>
       <c r="AB6" t="n">
-        <v>1340.411776458536</v>
+        <v>1454.168430102961</v>
       </c>
       <c r="AC6" t="n">
-        <v>1212.484757793077</v>
+        <v>1315.384636072144</v>
       </c>
       <c r="AD6" t="n">
-        <v>979658.3518362304</v>
+        <v>1062798.964129373</v>
       </c>
       <c r="AE6" t="n">
-        <v>1340411.776458537</v>
+        <v>1454168.430102961</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.14612412380656e-06</v>
+        <v>2.167049853025616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1212484.757793077</v>
+        <v>1315384.636072144</v>
       </c>
     </row>
     <row r="7">
@@ -15545,28 +15545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>952.2164614078375</v>
+        <v>1035.186481500388</v>
       </c>
       <c r="AB7" t="n">
-        <v>1302.864571323647</v>
+        <v>1416.387813193225</v>
       </c>
       <c r="AC7" t="n">
-        <v>1178.521005218428</v>
+        <v>1281.209748214844</v>
       </c>
       <c r="AD7" t="n">
-        <v>952216.4614078376</v>
+        <v>1035186.481500388</v>
       </c>
       <c r="AE7" t="n">
-        <v>1302864.571323647</v>
+        <v>1416387.813193225</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.167660725935682e-06</v>
+        <v>2.207770477876945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.34201388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1178521.005218428</v>
+        <v>1281209.748214844</v>
       </c>
     </row>
     <row r="8">
@@ -15651,28 +15651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>930.375211194553</v>
+        <v>1001.638682668655</v>
       </c>
       <c r="AB8" t="n">
-        <v>1272.980409213877</v>
+        <v>1370.486234807218</v>
       </c>
       <c r="AC8" t="n">
-        <v>1151.48894559773</v>
+        <v>1239.688952046728</v>
       </c>
       <c r="AD8" t="n">
-        <v>930375.2111945529</v>
+        <v>1001638.682668655</v>
       </c>
       <c r="AE8" t="n">
-        <v>1272980.409213877</v>
+        <v>1370486.234807218</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.184028543553815e-06</v>
+        <v>2.238718152763956e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.1568287037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1151488.945597729</v>
+        <v>1239688.952046728</v>
       </c>
     </row>
     <row r="9">
@@ -15757,28 +15757,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>914.1035048999277</v>
+        <v>985.3669763740297</v>
       </c>
       <c r="AB9" t="n">
-        <v>1250.716742804552</v>
+        <v>1348.222568397894</v>
       </c>
       <c r="AC9" t="n">
-        <v>1131.350092263259</v>
+        <v>1219.550098712257</v>
       </c>
       <c r="AD9" t="n">
-        <v>914103.5048999276</v>
+        <v>985366.9763740298</v>
       </c>
       <c r="AE9" t="n">
-        <v>1250716.742804552</v>
+        <v>1348222.568397894</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.195712150208864e-06</v>
+        <v>2.260809091745802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.02951388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1131350.092263259</v>
+        <v>1219550.098712257</v>
       </c>
     </row>
     <row r="10">
@@ -15863,28 +15863,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>889.0887578970865</v>
+        <v>972.1440293356578</v>
       </c>
       <c r="AB10" t="n">
-        <v>1216.490462382514</v>
+        <v>1330.13034890474</v>
       </c>
       <c r="AC10" t="n">
-        <v>1100.390320007813</v>
+        <v>1203.184575254941</v>
       </c>
       <c r="AD10" t="n">
-        <v>889088.7578970864</v>
+        <v>972144.0293356578</v>
       </c>
       <c r="AE10" t="n">
-        <v>1216490.462382514</v>
+        <v>1330130.348904741</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.204380632565836e-06</v>
+        <v>2.277199143248462e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.9369212962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1100390.320007813</v>
+        <v>1203184.575254941</v>
       </c>
     </row>
     <row r="11">
@@ -15969,28 +15969,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>875.9414812615435</v>
+        <v>958.9967527001148</v>
       </c>
       <c r="AB11" t="n">
-        <v>1198.501778472854</v>
+        <v>1312.141664995081</v>
       </c>
       <c r="AC11" t="n">
-        <v>1084.118450843215</v>
+        <v>1186.912706090343</v>
       </c>
       <c r="AD11" t="n">
-        <v>875941.4812615435</v>
+        <v>958996.7527001149</v>
       </c>
       <c r="AE11" t="n">
-        <v>1198501.778472854</v>
+        <v>1312141.664995081</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212833748901516e-06</v>
+        <v>2.293181988502609e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.8443287037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1084118.450843215</v>
+        <v>1186912.706090343</v>
       </c>
     </row>
     <row r="12">
@@ -16075,28 +16075,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>866.1350448242476</v>
+        <v>949.1903162628187</v>
       </c>
       <c r="AB12" t="n">
-        <v>1185.084179509904</v>
+        <v>1298.724066032131</v>
       </c>
       <c r="AC12" t="n">
-        <v>1071.98140869357</v>
+        <v>1174.775663940698</v>
       </c>
       <c r="AD12" t="n">
-        <v>866135.0448242476</v>
+        <v>949190.3162628186</v>
       </c>
       <c r="AE12" t="n">
-        <v>1185084.179509904</v>
+        <v>1298724.066032131</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.218487106960411e-06</v>
+        <v>2.303871152526083e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1071981.40869357</v>
+        <v>1174775.663940698</v>
       </c>
     </row>
     <row r="13">
@@ -16181,28 +16181,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>856.7022327878468</v>
+        <v>939.7575042264182</v>
       </c>
       <c r="AB13" t="n">
-        <v>1172.177789935404</v>
+        <v>1285.817676457631</v>
       </c>
       <c r="AC13" t="n">
-        <v>1060.306786825829</v>
+        <v>1163.101042072957</v>
       </c>
       <c r="AD13" t="n">
-        <v>856702.2327878468</v>
+        <v>939757.5042264182</v>
       </c>
       <c r="AE13" t="n">
-        <v>1172177.789935404</v>
+        <v>1285817.67645763</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.223494366955432e-06</v>
+        <v>2.313338697804017e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1060306.786825829</v>
+        <v>1163101.042072957</v>
       </c>
     </row>
     <row r="14">
@@ -16287,28 +16287,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>846.5846777413821</v>
+        <v>929.6399491799532</v>
       </c>
       <c r="AB14" t="n">
-        <v>1158.334504765804</v>
+        <v>1271.974391288031</v>
       </c>
       <c r="AC14" t="n">
-        <v>1047.784685363643</v>
+        <v>1150.578940610771</v>
       </c>
       <c r="AD14" t="n">
-        <v>846584.677741382</v>
+        <v>929639.9491799532</v>
       </c>
       <c r="AE14" t="n">
-        <v>1158334.504765804</v>
+        <v>1271974.391288031</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.228555468455775e-06</v>
+        <v>2.322908044644079e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.67939814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>1047784.685363643</v>
+        <v>1150578.940610771</v>
       </c>
     </row>
     <row r="15">
@@ -16393,28 +16393,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>838.2644269176225</v>
+        <v>921.3196983561937</v>
       </c>
       <c r="AB15" t="n">
-        <v>1146.950370525176</v>
+        <v>1260.590257047403</v>
       </c>
       <c r="AC15" t="n">
-        <v>1037.487036917207</v>
+        <v>1140.281292164336</v>
       </c>
       <c r="AD15" t="n">
-        <v>838264.4269176224</v>
+        <v>921319.6983561937</v>
       </c>
       <c r="AE15" t="n">
-        <v>1146950.370525176</v>
+        <v>1260590.257047403</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.232001324796435e-06</v>
+        <v>2.329423344620292e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.64467592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>1037487.036917208</v>
+        <v>1140281.292164335</v>
       </c>
     </row>
     <row r="16">
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>829.6670393006676</v>
+        <v>912.7223107392388</v>
       </c>
       <c r="AB16" t="n">
-        <v>1135.187045497685</v>
+        <v>1248.826932019912</v>
       </c>
       <c r="AC16" t="n">
-        <v>1026.84638712041</v>
+        <v>1129.640642367538</v>
       </c>
       <c r="AD16" t="n">
-        <v>829667.0393006676</v>
+        <v>912722.3107392387</v>
       </c>
       <c r="AE16" t="n">
-        <v>1135187.045497685</v>
+        <v>1248826.932019912</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.235877913179677e-06</v>
+        <v>2.336753057093531e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.60706018518519</v>
       </c>
       <c r="AH16" t="n">
-        <v>1026846.38712041</v>
+        <v>1129640.642367539</v>
       </c>
     </row>
     <row r="17">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>822.4815381341796</v>
+        <v>905.5368095727507</v>
       </c>
       <c r="AB17" t="n">
-        <v>1125.355525799758</v>
+        <v>1238.995412321985</v>
       </c>
       <c r="AC17" t="n">
-        <v>1017.953173863829</v>
+        <v>1120.747429110957</v>
       </c>
       <c r="AD17" t="n">
-        <v>822481.5381341795</v>
+        <v>905536.8095727507</v>
       </c>
       <c r="AE17" t="n">
-        <v>1125355.525799758</v>
+        <v>1238995.412321985</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.237385475328715e-06</v>
+        <v>2.339603500833124e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.58969907407407</v>
       </c>
       <c r="AH17" t="n">
-        <v>1017953.173863829</v>
+        <v>1120747.429110957</v>
       </c>
     </row>
     <row r="18">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>814.4881556377386</v>
+        <v>897.54342707631</v>
       </c>
       <c r="AB18" t="n">
-        <v>1114.41862722498</v>
+        <v>1228.058513747207</v>
       </c>
       <c r="AC18" t="n">
-        <v>1008.060077538994</v>
+        <v>1110.854332786122</v>
       </c>
       <c r="AD18" t="n">
-        <v>814488.1556377386</v>
+        <v>897543.4270763099</v>
       </c>
       <c r="AE18" t="n">
-        <v>1114418.62722498</v>
+        <v>1228058.513747207</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.241046697690666e-06</v>
+        <v>2.34652600705785e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1008060.077538994</v>
+        <v>1110854.332786122</v>
       </c>
     </row>
     <row r="19">
@@ -16817,28 +16817,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>806.6272103615963</v>
+        <v>877.9759331817189</v>
       </c>
       <c r="AB19" t="n">
-        <v>1103.662935097732</v>
+        <v>1201.285405343723</v>
       </c>
       <c r="AC19" t="n">
-        <v>998.3308935726623</v>
+        <v>1086.636412272373</v>
       </c>
       <c r="AD19" t="n">
-        <v>806627.2103615963</v>
+        <v>877975.9331817189</v>
       </c>
       <c r="AE19" t="n">
-        <v>1103662.935097732</v>
+        <v>1201285.405343723</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.242715784355673e-06</v>
+        <v>2.349681855483828e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.53761574074074</v>
       </c>
       <c r="AH19" t="n">
-        <v>998330.8935726623</v>
+        <v>1086636.412272373</v>
       </c>
     </row>
     <row r="20">
@@ -16923,28 +16923,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>799.375533012928</v>
+        <v>870.7242558330506</v>
       </c>
       <c r="AB20" t="n">
-        <v>1093.740870227859</v>
+        <v>1191.363340473849</v>
       </c>
       <c r="AC20" t="n">
-        <v>989.3557766482637</v>
+        <v>1077.661295347974</v>
       </c>
       <c r="AD20" t="n">
-        <v>799375.533012928</v>
+        <v>870724.2558330506</v>
       </c>
       <c r="AE20" t="n">
-        <v>1093740.870227859</v>
+        <v>1191363.340473849</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.244869444568586e-06</v>
+        <v>2.353753917968961e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.51446759259259</v>
       </c>
       <c r="AH20" t="n">
-        <v>989355.7766482637</v>
+        <v>1077661.295347974</v>
       </c>
     </row>
     <row r="21">
@@ -17029,28 +17029,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>794.9104910430552</v>
+        <v>866.2592138631779</v>
       </c>
       <c r="AB21" t="n">
-        <v>1087.631602820929</v>
+        <v>1185.25407306692</v>
       </c>
       <c r="AC21" t="n">
-        <v>983.829569148241</v>
+        <v>1072.135087847952</v>
       </c>
       <c r="AD21" t="n">
-        <v>794910.4910430552</v>
+        <v>866259.2138631779</v>
       </c>
       <c r="AE21" t="n">
-        <v>1087631.602820929</v>
+        <v>1185254.07306692</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.246000116180364e-06</v>
+        <v>2.355891750773656e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.50289351851852</v>
       </c>
       <c r="AH21" t="n">
-        <v>983829.5691482411</v>
+        <v>1072135.087847952</v>
       </c>
     </row>
     <row r="22">
@@ -17135,28 +17135,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>795.7572504120927</v>
+        <v>867.1059732322154</v>
       </c>
       <c r="AB22" t="n">
-        <v>1088.790176346034</v>
+        <v>1186.412646592024</v>
       </c>
       <c r="AC22" t="n">
-        <v>984.8775700421774</v>
+        <v>1073.183088741888</v>
       </c>
       <c r="AD22" t="n">
-        <v>795757.2504120928</v>
+        <v>867105.9732322154</v>
       </c>
       <c r="AE22" t="n">
-        <v>1088790.176346034</v>
+        <v>1186412.646592024</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.245569384137782e-06</v>
+        <v>2.355077338276629e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>984877.5700421773</v>
+        <v>1073183.088741888</v>
       </c>
     </row>
     <row r="23">
@@ -17241,28 +17241,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>798.8555343455639</v>
+        <v>870.2042571656865</v>
       </c>
       <c r="AB23" t="n">
-        <v>1093.029385110449</v>
+        <v>1190.651855356439</v>
       </c>
       <c r="AC23" t="n">
-        <v>988.7121946718839</v>
+        <v>1077.017713371594</v>
       </c>
       <c r="AD23" t="n">
-        <v>798855.534345564</v>
+        <v>870204.2571656865</v>
       </c>
       <c r="AE23" t="n">
-        <v>1093029.385110449</v>
+        <v>1190651.855356439</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.245623225643105e-06</v>
+        <v>2.355179139838758e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>988712.1946718839</v>
+        <v>1077017.713371594</v>
       </c>
     </row>
   </sheetData>
@@ -17538,28 +17538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.6473293751078</v>
+        <v>643.1592009226786</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.2578277019655</v>
+        <v>879.9987928838051</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.2184841458811</v>
+        <v>796.012943177037</v>
       </c>
       <c r="AD2" t="n">
-        <v>574647.3293751078</v>
+        <v>643159.2009226786</v>
       </c>
       <c r="AE2" t="n">
-        <v>786257.8277019656</v>
+        <v>879998.7928838051</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316925878961447e-06</v>
+        <v>3.019140479930428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.15798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>711218.4841458811</v>
+        <v>796012.9431770369</v>
       </c>
     </row>
     <row r="3">
@@ -17644,28 +17644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.6488138270429</v>
+        <v>538.1605958660626</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.5942265215222</v>
+        <v>736.3350692338132</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.2659354289686</v>
+        <v>666.0602836788978</v>
       </c>
       <c r="AD3" t="n">
-        <v>469648.8138270429</v>
+        <v>538160.5958660627</v>
       </c>
       <c r="AE3" t="n">
-        <v>642594.2265215222</v>
+        <v>736335.0692338132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441672356193532e-06</v>
+        <v>3.30513010558584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.93113425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>581265.9354289686</v>
+        <v>666060.2836788978</v>
       </c>
     </row>
     <row r="4">
@@ -17750,28 +17750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.1005957967211</v>
+        <v>530.6123778357407</v>
       </c>
       <c r="AB4" t="n">
-        <v>632.2664216085586</v>
+        <v>726.0072643208497</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.9238017217331</v>
+        <v>656.7181499716622</v>
       </c>
       <c r="AD4" t="n">
-        <v>462100.5957967211</v>
+        <v>530612.3778357408</v>
       </c>
       <c r="AE4" t="n">
-        <v>632266.4216085586</v>
+        <v>726007.2643208497</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454237213146144e-06</v>
+        <v>3.333935878831091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>571923.8017217331</v>
+        <v>656718.1499716622</v>
       </c>
     </row>
   </sheetData>
@@ -18047,28 +18047,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1485.13922121468</v>
+        <v>1587.696926723145</v>
       </c>
       <c r="AB2" t="n">
-        <v>2032.033002184216</v>
+        <v>2172.356979387539</v>
       </c>
       <c r="AC2" t="n">
-        <v>1838.098624431984</v>
+        <v>1965.030278196961</v>
       </c>
       <c r="AD2" t="n">
-        <v>1485139.22121468</v>
+        <v>1587696.926723144</v>
       </c>
       <c r="AE2" t="n">
-        <v>2032033.002184216</v>
+        <v>2172356.979387539</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.510631367953576e-07</v>
+        <v>1.668071986482366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.03067129629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>1838098.624431984</v>
+        <v>1965030.278196961</v>
       </c>
     </row>
     <row r="3">
@@ -18153,28 +18153,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1034.065055508598</v>
+        <v>1113.832179683748</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.853428677434</v>
+        <v>1523.994327051029</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.821803203718</v>
+        <v>1378.54644741675</v>
       </c>
       <c r="AD3" t="n">
-        <v>1034065.055508598</v>
+        <v>1113832.179683748</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414853.428677434</v>
+        <v>1523994.327051029</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075807841756773e-06</v>
+        <v>2.10856850224971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05497685185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279821.803203718</v>
+        <v>1378546.44741675</v>
       </c>
     </row>
     <row r="4">
@@ -18259,28 +18259,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>909.4488317490426</v>
+        <v>1000.440475373155</v>
       </c>
       <c r="AB4" t="n">
-        <v>1244.348013649825</v>
+        <v>1368.84679472434</v>
       </c>
       <c r="AC4" t="n">
-        <v>1125.589185680491</v>
+        <v>1238.205977824391</v>
       </c>
       <c r="AD4" t="n">
-        <v>909448.8317490426</v>
+        <v>1000440.475373155</v>
       </c>
       <c r="AE4" t="n">
-        <v>1244348.013649825</v>
+        <v>1368846.79472434</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158764666850875e-06</v>
+        <v>2.271162732976287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.97858796296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1125589.185680491</v>
+        <v>1238205.977824391</v>
       </c>
     </row>
     <row r="5">
@@ -18365,28 +18365,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>860.2194862605803</v>
+        <v>939.8159287265871</v>
       </c>
       <c r="AB5" t="n">
-        <v>1176.990251307069</v>
+        <v>1285.897615436269</v>
       </c>
       <c r="AC5" t="n">
-        <v>1064.659953638515</v>
+        <v>1163.173351787669</v>
       </c>
       <c r="AD5" t="n">
-        <v>860219.4862605804</v>
+        <v>939815.9287265871</v>
       </c>
       <c r="AE5" t="n">
-        <v>1176990.25130707</v>
+        <v>1285897.615436269</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.20225822494677e-06</v>
+        <v>2.356409505766132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1064659.953638515</v>
+        <v>1163173.351787669</v>
       </c>
     </row>
     <row r="6">
@@ -18471,28 +18471,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>828.2871186279987</v>
+        <v>896.6589521364917</v>
       </c>
       <c r="AB6" t="n">
-        <v>1133.298977155536</v>
+        <v>1226.848336114267</v>
       </c>
       <c r="AC6" t="n">
-        <v>1025.138513370916</v>
+        <v>1109.759652807975</v>
       </c>
       <c r="AD6" t="n">
-        <v>828287.1186279986</v>
+        <v>896658.9521364918</v>
       </c>
       <c r="AE6" t="n">
-        <v>1133298.977155536</v>
+        <v>1226848.336114267</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230190381304366e-06</v>
+        <v>2.411156146206457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.16550925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1025138.513370916</v>
+        <v>1109759.652807975</v>
       </c>
     </row>
     <row r="7">
@@ -18577,28 +18577,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>796.3532782579887</v>
+        <v>876.0349720700159</v>
       </c>
       <c r="AB7" t="n">
-        <v>1089.605687939681</v>
+        <v>1198.62969672153</v>
       </c>
       <c r="AC7" t="n">
-        <v>985.6152503539049</v>
+        <v>1084.234160753771</v>
       </c>
       <c r="AD7" t="n">
-        <v>796353.2782579886</v>
+        <v>876034.9720700159</v>
       </c>
       <c r="AE7" t="n">
-        <v>1089605.687939681</v>
+        <v>1198629.69672153</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246311545695122e-06</v>
+        <v>2.442753405618909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>985615.2503539049</v>
+        <v>1084234.160753771</v>
       </c>
     </row>
     <row r="8">
@@ -18683,28 +18683,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>777.6522630215976</v>
+        <v>857.3339568336249</v>
       </c>
       <c r="AB8" t="n">
-        <v>1064.018133862686</v>
+        <v>1173.042142644535</v>
       </c>
       <c r="AC8" t="n">
-        <v>962.4697365256611</v>
+        <v>1061.088646925527</v>
       </c>
       <c r="AD8" t="n">
-        <v>777652.2630215976</v>
+        <v>857333.956833625</v>
       </c>
       <c r="AE8" t="n">
-        <v>1064018.133862686</v>
+        <v>1173042.142644535</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.26047354080228e-06</v>
+        <v>2.470510720311097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.85011574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>962469.7365256611</v>
+        <v>1061088.646925527</v>
       </c>
     </row>
     <row r="9">
@@ -18789,28 +18789,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>763.0723416648169</v>
+        <v>842.7540354768443</v>
       </c>
       <c r="AB9" t="n">
-        <v>1044.069242241605</v>
+        <v>1153.093251023454</v>
       </c>
       <c r="AC9" t="n">
-        <v>944.4247391224504</v>
+        <v>1043.043649522317</v>
       </c>
       <c r="AD9" t="n">
-        <v>763072.341664817</v>
+        <v>842754.0354768443</v>
       </c>
       <c r="AE9" t="n">
-        <v>1044069.242241605</v>
+        <v>1153093.251023454</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.27032536348552e-06</v>
+        <v>2.489820156618707e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.74884259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>944424.7391224505</v>
+        <v>1043043.649522317</v>
       </c>
     </row>
     <row r="10">
@@ -18895,28 +18895,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>751.2676715787297</v>
+        <v>830.9493653907571</v>
       </c>
       <c r="AB10" t="n">
-        <v>1027.917571844531</v>
+        <v>1136.94158062638</v>
       </c>
       <c r="AC10" t="n">
-        <v>929.814561479062</v>
+        <v>1028.433471878928</v>
       </c>
       <c r="AD10" t="n">
-        <v>751267.6715787298</v>
+        <v>830949.3653907571</v>
       </c>
       <c r="AE10" t="n">
-        <v>1027917.571844532</v>
+        <v>1136941.58062638</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.276202871336317e-06</v>
+        <v>2.501339990779497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.69097222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>929814.5614790621</v>
+        <v>1028433.471878928</v>
       </c>
     </row>
     <row r="11">
@@ -19001,28 +19001,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>739.0672436242953</v>
+        <v>818.7489374363226</v>
       </c>
       <c r="AB11" t="n">
-        <v>1011.224408072381</v>
+        <v>1120.248416854229</v>
       </c>
       <c r="AC11" t="n">
-        <v>914.7145698283225</v>
+        <v>1013.333480228189</v>
       </c>
       <c r="AD11" t="n">
-        <v>739067.2436242953</v>
+        <v>818748.9374363227</v>
       </c>
       <c r="AE11" t="n">
-        <v>1011224.408072381</v>
+        <v>1120248.416854229</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.282696118104816e-06</v>
+        <v>2.514066664709512e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.62731481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>914714.5698283225</v>
+        <v>1013333.480228189</v>
       </c>
     </row>
     <row r="12">
@@ -19107,28 +19107,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>723.5740984970396</v>
+        <v>803.255792309067</v>
       </c>
       <c r="AB12" t="n">
-        <v>990.026003399946</v>
+        <v>1099.050012181795</v>
       </c>
       <c r="AC12" t="n">
-        <v>895.5393111456774</v>
+        <v>994.1582215455435</v>
       </c>
       <c r="AD12" t="n">
-        <v>723574.0984970396</v>
+        <v>803255.792309067</v>
       </c>
       <c r="AE12" t="n">
-        <v>990026.003399946</v>
+        <v>1099050.012181795</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.290140961382492e-06</v>
+        <v>2.528658454646513e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.55497685185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>895539.3111456773</v>
+        <v>994158.2215455435</v>
       </c>
     </row>
     <row r="13">
@@ -19213,28 +19213,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>715.4932331012739</v>
+        <v>783.9503179557877</v>
       </c>
       <c r="AB13" t="n">
-        <v>978.9694068628387</v>
+        <v>1072.635410474219</v>
       </c>
       <c r="AC13" t="n">
-        <v>885.5379406640408</v>
+        <v>970.2645923518128</v>
       </c>
       <c r="AD13" t="n">
-        <v>715493.2331012739</v>
+        <v>783950.3179557876</v>
       </c>
       <c r="AE13" t="n">
-        <v>978969.4068628387</v>
+        <v>1072635.410474219</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.292995750910021e-06</v>
+        <v>2.534253802667467e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>885537.9406640407</v>
+        <v>970264.5923518128</v>
       </c>
     </row>
     <row r="14">
@@ -19319,28 +19319,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>706.6353439613179</v>
+        <v>774.9218366152393</v>
       </c>
       <c r="AB14" t="n">
-        <v>966.8496521590621</v>
+        <v>1060.282243995596</v>
       </c>
       <c r="AC14" t="n">
-        <v>874.57487833901</v>
+        <v>959.0903947441308</v>
       </c>
       <c r="AD14" t="n">
-        <v>706635.3439613179</v>
+        <v>774921.8366152393</v>
       </c>
       <c r="AE14" t="n">
-        <v>966849.6521590621</v>
+        <v>1060282.243995595</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.296186398029025e-06</v>
+        <v>2.540507426926182e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>874574.8783390099</v>
+        <v>959090.3947441308</v>
       </c>
     </row>
     <row r="15">
@@ -19425,28 +19425,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>705.0091618596402</v>
+        <v>773.2956545135618</v>
       </c>
       <c r="AB15" t="n">
-        <v>964.6246380654558</v>
+        <v>1058.057229901989</v>
       </c>
       <c r="AC15" t="n">
-        <v>872.5622164676706</v>
+        <v>957.0777328727913</v>
       </c>
       <c r="AD15" t="n">
-        <v>705009.1618596403</v>
+        <v>773295.6545135617</v>
       </c>
       <c r="AE15" t="n">
-        <v>964624.6380654557</v>
+        <v>1058057.229901989</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.297473852129676e-06</v>
+        <v>2.543030819170927e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.48263888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>872562.2164676706</v>
+        <v>957077.7328727914</v>
       </c>
     </row>
   </sheetData>
@@ -19722,28 +19722,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1729.985212234001</v>
+        <v>1846.358733548026</v>
       </c>
       <c r="AB2" t="n">
-        <v>2367.042088939618</v>
+        <v>2526.269474838885</v>
       </c>
       <c r="AC2" t="n">
-        <v>2141.134914135657</v>
+        <v>2285.165861801738</v>
       </c>
       <c r="AD2" t="n">
-        <v>1729985.212234001</v>
+        <v>1846358.733548026</v>
       </c>
       <c r="AE2" t="n">
-        <v>2367042.088939618</v>
+        <v>2526269.474838885</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.811108618737878e-07</v>
+        <v>1.501844260913088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.31828703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2141134.914135657</v>
+        <v>2285165.861801738</v>
       </c>
     </row>
     <row r="3">
@@ -19828,28 +19828,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.451627858701</v>
+        <v>1238.618645986737</v>
       </c>
       <c r="AB3" t="n">
-        <v>1567.257450995602</v>
+        <v>1694.732675437136</v>
       </c>
       <c r="AC3" t="n">
-        <v>1417.680599532229</v>
+        <v>1532.989767465664</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145451.627858701</v>
+        <v>1238618.645986737</v>
       </c>
       <c r="AE3" t="n">
-        <v>1567257.450995602</v>
+        <v>1694732.675437136</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020566698339239e-06</v>
+        <v>1.962246735505598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.54976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>1417680.599532229</v>
+        <v>1532989.767465664</v>
       </c>
     </row>
     <row r="4">
@@ -19934,28 +19934,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1009.578861087191</v>
+        <v>1091.014750603203</v>
       </c>
       <c r="AB4" t="n">
-        <v>1381.350337215408</v>
+        <v>1492.7745139491</v>
       </c>
       <c r="AC4" t="n">
-        <v>1249.516199768944</v>
+        <v>1350.306209459987</v>
       </c>
       <c r="AD4" t="n">
-        <v>1009578.861087191</v>
+        <v>1091014.750603203</v>
       </c>
       <c r="AE4" t="n">
-        <v>1381350.337215408</v>
+        <v>1492774.5139491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.109910160914187e-06</v>
+        <v>2.134027686286909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1249516.199768944</v>
+        <v>1350306.209459987</v>
       </c>
     </row>
     <row r="5">
@@ -20040,28 +20040,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>939.0938201551228</v>
+        <v>1020.614961017155</v>
       </c>
       <c r="AB5" t="n">
-        <v>1284.90959463161</v>
+        <v>1396.450416017952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1162.27962630191</v>
+        <v>1263.175148243666</v>
       </c>
       <c r="AD5" t="n">
-        <v>939093.8201551228</v>
+        <v>1020614.961017155</v>
       </c>
       <c r="AE5" t="n">
-        <v>1284909.59463161</v>
+        <v>1396450.416017951</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.157735513501881e-06</v>
+        <v>2.225981639068555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.70659722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1162279.62630191</v>
+        <v>1263175.148243666</v>
       </c>
     </row>
     <row r="6">
@@ -20146,28 +20146,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>904.6362764166588</v>
+        <v>985.9868250780987</v>
       </c>
       <c r="AB6" t="n">
-        <v>1237.763263129101</v>
+        <v>1349.070672740595</v>
       </c>
       <c r="AC6" t="n">
-        <v>1119.632874507709</v>
+        <v>1220.317261166814</v>
       </c>
       <c r="AD6" t="n">
-        <v>904636.2764166588</v>
+        <v>985986.8250780987</v>
       </c>
       <c r="AE6" t="n">
-        <v>1237763.263129101</v>
+        <v>1349070.672740595</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.186200373585612e-06</v>
+        <v>2.280711113258549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1119632.874507709</v>
+        <v>1220317.261166814</v>
       </c>
     </row>
     <row r="7">
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>881.0311987121727</v>
+        <v>950.9065518167513</v>
       </c>
       <c r="AB7" t="n">
-        <v>1205.465754431292</v>
+        <v>1301.07229523199</v>
       </c>
       <c r="AC7" t="n">
-        <v>1090.417794710181</v>
+        <v>1176.899781441484</v>
       </c>
       <c r="AD7" t="n">
-        <v>881031.1987121727</v>
+        <v>950906.5518167512</v>
       </c>
       <c r="AE7" t="n">
-        <v>1205465.754431292</v>
+        <v>1301072.29523199</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.205451174913915e-06</v>
+        <v>2.317724688288776e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.16550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1090417.794710181</v>
+        <v>1176899.781441484</v>
       </c>
     </row>
     <row r="8">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>861.1132502765653</v>
+        <v>930.9886033811438</v>
       </c>
       <c r="AB8" t="n">
-        <v>1178.213138663825</v>
+        <v>1273.819679464524</v>
       </c>
       <c r="AC8" t="n">
-        <v>1065.766130342275</v>
+        <v>1152.248117073578</v>
       </c>
       <c r="AD8" t="n">
-        <v>861113.2502765653</v>
+        <v>930988.6033811438</v>
       </c>
       <c r="AE8" t="n">
-        <v>1178213.138663826</v>
+        <v>1273819.679464524</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.220643402742804e-06</v>
+        <v>2.346934831546249e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.0005787037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1065766.130342275</v>
+        <v>1152248.117073578</v>
       </c>
     </row>
     <row r="9">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>833.0991356548946</v>
+        <v>914.534935662355</v>
       </c>
       <c r="AB9" t="n">
-        <v>1139.882991142944</v>
+        <v>1251.307045407088</v>
       </c>
       <c r="AC9" t="n">
-        <v>1031.094158304086</v>
+        <v>1131.884057213903</v>
       </c>
       <c r="AD9" t="n">
-        <v>833099.1356548945</v>
+        <v>914534.935662355</v>
       </c>
       <c r="AE9" t="n">
-        <v>1139882.991142944</v>
+        <v>1251307.045407088</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.231831902660109e-06</v>
+        <v>2.36844699481168e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1031094.158304086</v>
+        <v>1131884.057213903</v>
       </c>
     </row>
     <row r="10">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>820.5126875508707</v>
+        <v>901.9484875583312</v>
       </c>
       <c r="AB10" t="n">
-        <v>1122.661657572117</v>
+        <v>1234.085711836261</v>
       </c>
       <c r="AC10" t="n">
-        <v>1015.516404638966</v>
+        <v>1116.306303548783</v>
       </c>
       <c r="AD10" t="n">
-        <v>820512.6875508707</v>
+        <v>901948.4875583312</v>
       </c>
       <c r="AE10" t="n">
-        <v>1122661.657572117</v>
+        <v>1234085.711836261</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240278123185918e-06</v>
+        <v>2.384686569041467e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.79513888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1015516.404638966</v>
+        <v>1116306.303548783</v>
       </c>
     </row>
     <row r="11">
@@ -20676,28 +20676,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>809.0487219992149</v>
+        <v>890.4845220066753</v>
       </c>
       <c r="AB11" t="n">
-        <v>1106.976154149876</v>
+        <v>1218.40020841402</v>
       </c>
       <c r="AC11" t="n">
-        <v>1001.327903648601</v>
+        <v>1102.117802558418</v>
       </c>
       <c r="AD11" t="n">
-        <v>809048.7219992148</v>
+        <v>890484.5220066754</v>
       </c>
       <c r="AE11" t="n">
-        <v>1106976.154149876</v>
+        <v>1218400.20841402</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.246749902549849e-06</v>
+        <v>2.397129879165588e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.72858796296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1001327.903648601</v>
+        <v>1102117.802558418</v>
       </c>
     </row>
     <row r="12">
@@ -20782,28 +20782,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>799.2890751046136</v>
+        <v>880.7248751120741</v>
       </c>
       <c r="AB12" t="n">
-        <v>1093.622574703449</v>
+        <v>1205.046628967594</v>
       </c>
       <c r="AC12" t="n">
-        <v>989.2487710826751</v>
+        <v>1090.038669992492</v>
       </c>
       <c r="AD12" t="n">
-        <v>799289.0751046137</v>
+        <v>880724.8751120741</v>
       </c>
       <c r="AE12" t="n">
-        <v>1093622.574703449</v>
+        <v>1205046.628967593</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.251631159866712e-06</v>
+        <v>2.406515087649036e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.67939814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>989248.7710826752</v>
+        <v>1090038.669992492</v>
       </c>
     </row>
     <row r="13">
@@ -20888,28 +20888,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>787.634736550557</v>
+        <v>869.0705365580175</v>
       </c>
       <c r="AB13" t="n">
-        <v>1077.676594540659</v>
+        <v>1189.100648804803</v>
       </c>
       <c r="AC13" t="n">
-        <v>974.8246528862981</v>
+        <v>1075.614551796114</v>
       </c>
       <c r="AD13" t="n">
-        <v>787634.7365505571</v>
+        <v>869070.5365580175</v>
       </c>
       <c r="AE13" t="n">
-        <v>1077676.594540659</v>
+        <v>1189100.648804803</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.257060873061874e-06</v>
+        <v>2.416954813939613e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.6244212962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>974824.652886298</v>
+        <v>1075614.551796115</v>
       </c>
     </row>
     <row r="14">
@@ -20994,28 +20994,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>777.8188394367974</v>
+        <v>859.2546394442577</v>
       </c>
       <c r="AB14" t="n">
-        <v>1064.246051062795</v>
+        <v>1175.670105326939</v>
       </c>
       <c r="AC14" t="n">
-        <v>962.6759016280752</v>
+        <v>1063.465800537892</v>
       </c>
       <c r="AD14" t="n">
-        <v>777818.8394367973</v>
+        <v>859254.6394442577</v>
       </c>
       <c r="AE14" t="n">
-        <v>1064246.051062795</v>
+        <v>1175670.105326939</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.26002253480469e-06</v>
+        <v>2.42264921009811e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.59548611111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>962675.9016280752</v>
+        <v>1063465.800537892</v>
       </c>
     </row>
     <row r="15">
@@ -21100,28 +21100,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>770.1448420350034</v>
+        <v>851.5806420424639</v>
       </c>
       <c r="AB15" t="n">
-        <v>1053.746149264789</v>
+        <v>1165.170203528934</v>
       </c>
       <c r="AC15" t="n">
-        <v>953.1780957209664</v>
+        <v>1053.967994630783</v>
       </c>
       <c r="AD15" t="n">
-        <v>770144.8420350035</v>
+        <v>851580.6420424639</v>
       </c>
       <c r="AE15" t="n">
-        <v>1053746.149264789</v>
+        <v>1165170.203528934</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.262929350959676e-06</v>
+        <v>2.428238154475893e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.56655092592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>953178.0957209665</v>
+        <v>1053967.994630783</v>
       </c>
     </row>
     <row r="16">
@@ -21206,28 +21206,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>759.8755615355357</v>
+        <v>829.8361659861348</v>
       </c>
       <c r="AB16" t="n">
-        <v>1039.695266636737</v>
+        <v>1135.418452090084</v>
       </c>
       <c r="AC16" t="n">
-        <v>940.4682096103973</v>
+        <v>1027.055708592412</v>
       </c>
       <c r="AD16" t="n">
-        <v>759875.5615355356</v>
+        <v>829836.1659861348</v>
       </c>
       <c r="AE16" t="n">
-        <v>1039695.266636737</v>
+        <v>1135418.452090084</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.26753638033739e-06</v>
+        <v>2.437096104055776e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.52025462962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>940468.2096103972</v>
+        <v>1027055.708592412</v>
       </c>
     </row>
     <row r="17">
@@ -21312,28 +21312,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>749.9234020224316</v>
+        <v>819.7134142724385</v>
       </c>
       <c r="AB17" t="n">
-        <v>1026.078282932617</v>
+        <v>1121.568056611118</v>
       </c>
       <c r="AC17" t="n">
-        <v>928.1508117194422</v>
+        <v>1014.527175418806</v>
       </c>
       <c r="AD17" t="n">
-        <v>749923.4020224316</v>
+        <v>819713.4142724385</v>
       </c>
       <c r="AE17" t="n">
-        <v>1026078.282932617</v>
+        <v>1121568.056611118</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.270498042080206e-06</v>
+        <v>2.442790500214273e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.49131944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>928150.8117194423</v>
+        <v>1014527.175418806</v>
       </c>
     </row>
     <row r="18">
@@ -21418,28 +21418,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>749.925235635485</v>
+        <v>819.715247885492</v>
       </c>
       <c r="AB18" t="n">
-        <v>1026.08079176289</v>
+        <v>1121.570565441391</v>
       </c>
       <c r="AC18" t="n">
-        <v>928.1530811104752</v>
+        <v>1014.529444809839</v>
       </c>
       <c r="AD18" t="n">
-        <v>749925.235635485</v>
+        <v>819715.2478854919</v>
       </c>
       <c r="AE18" t="n">
-        <v>1026080.79176289</v>
+        <v>1121570.565441391</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.269730203850587e-06</v>
+        <v>2.441314175284293e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH18" t="n">
-        <v>928153.0811104752</v>
+        <v>1014529.444809839</v>
       </c>
     </row>
   </sheetData>
@@ -21715,28 +21715,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2321.805635212132</v>
+        <v>2466.749308283975</v>
       </c>
       <c r="AB2" t="n">
-        <v>3176.796900932841</v>
+        <v>3375.115228893304</v>
       </c>
       <c r="AC2" t="n">
-        <v>2873.607863370143</v>
+        <v>3052.998968451574</v>
       </c>
       <c r="AD2" t="n">
-        <v>2321805.635212132</v>
+        <v>2466749.308283974</v>
       </c>
       <c r="AE2" t="n">
-        <v>3176796.900932841</v>
+        <v>3375115.228893304</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.598220716316245e-07</v>
+        <v>1.229198474304951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.21469907407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2873607.863370143</v>
+        <v>3052998.968451574</v>
       </c>
     </row>
     <row r="3">
@@ -21821,28 +21821,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1400.05995141418</v>
+        <v>1508.810309513934</v>
       </c>
       <c r="AB3" t="n">
-        <v>1915.623791810692</v>
+        <v>2064.420829489969</v>
       </c>
       <c r="AC3" t="n">
-        <v>1732.799345715157</v>
+        <v>1867.395402956277</v>
       </c>
       <c r="AD3" t="n">
-        <v>1400059.95141418</v>
+        <v>1508810.309513934</v>
       </c>
       <c r="AE3" t="n">
-        <v>1915623.791810692</v>
+        <v>2064420.829489968</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.190076350710045e-07</v>
+        <v>1.712041520694316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1732799.345715157</v>
+        <v>1867395.402956277</v>
       </c>
     </row>
     <row r="4">
@@ -21927,28 +21927,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1206.585984518024</v>
+        <v>1291.236062102162</v>
       </c>
       <c r="AB4" t="n">
-        <v>1650.904174834355</v>
+        <v>1766.726145482828</v>
       </c>
       <c r="AC4" t="n">
-        <v>1493.344197446726</v>
+        <v>1598.112281773665</v>
       </c>
       <c r="AD4" t="n">
-        <v>1206585.984518024</v>
+        <v>1291236.062102162</v>
       </c>
       <c r="AE4" t="n">
-        <v>1650904.174834355</v>
+        <v>1766726.145482828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020596094270386e-06</v>
+        <v>1.901293115061389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.00868055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1493344.197446726</v>
+        <v>1598112.281773665</v>
       </c>
     </row>
     <row r="5">
@@ -22033,28 +22033,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1111.149607405977</v>
+        <v>1195.714344135543</v>
       </c>
       <c r="AB5" t="n">
-        <v>1520.323913313846</v>
+        <v>1636.029116840121</v>
       </c>
       <c r="AC5" t="n">
-        <v>1375.226332815186</v>
+        <v>1479.888794110186</v>
       </c>
       <c r="AD5" t="n">
-        <v>1111149.607405977</v>
+        <v>1195714.344135543</v>
       </c>
       <c r="AE5" t="n">
-        <v>1520323.913313846</v>
+        <v>1636029.116840121</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.076445924627523e-06</v>
+        <v>2.00533711300681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.23032407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>1375226.332815185</v>
+        <v>1479888.794110186</v>
       </c>
     </row>
     <row r="6">
@@ -22139,28 +22139,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1054.281913278785</v>
+        <v>1138.931901354372</v>
       </c>
       <c r="AB6" t="n">
-        <v>1442.515025383421</v>
+        <v>1558.336873562346</v>
       </c>
       <c r="AC6" t="n">
-        <v>1304.84341594338</v>
+        <v>1409.611389489093</v>
       </c>
       <c r="AD6" t="n">
-        <v>1054281.913278785</v>
+        <v>1138931.901354372</v>
       </c>
       <c r="AE6" t="n">
-        <v>1442515.025383421</v>
+        <v>1558336.873562346</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.108949996513099e-06</v>
+        <v>2.065889733612012e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.81365740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1304843.41594338</v>
+        <v>1409611.389489093</v>
       </c>
     </row>
     <row r="7">
@@ -22245,28 +22245,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1021.846851497657</v>
+        <v>1106.496839573244</v>
       </c>
       <c r="AB7" t="n">
-        <v>1398.135942920547</v>
+        <v>1513.957791099471</v>
       </c>
       <c r="AC7" t="n">
-        <v>1264.69981082433</v>
+        <v>1369.467784370042</v>
       </c>
       <c r="AD7" t="n">
-        <v>1021846.851497657</v>
+        <v>1106496.839573244</v>
       </c>
       <c r="AE7" t="n">
-        <v>1398135.942920547</v>
+        <v>1513957.791099471</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133089828402061e-06</v>
+        <v>2.110860409501218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.51851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1264699.81082433</v>
+        <v>1369467.784370042</v>
       </c>
     </row>
     <row r="8">
@@ -22351,28 +22351,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>999.7063111583666</v>
+        <v>1084.185707033361</v>
       </c>
       <c r="AB8" t="n">
-        <v>1367.842278856627</v>
+        <v>1483.430715260704</v>
       </c>
       <c r="AC8" t="n">
-        <v>1237.297331541245</v>
+        <v>1341.854169804307</v>
       </c>
       <c r="AD8" t="n">
-        <v>999706.3111583666</v>
+        <v>1084185.707033361</v>
       </c>
       <c r="AE8" t="n">
-        <v>1367842.278856627</v>
+        <v>1483430.715260704</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.149447740800502e-06</v>
+        <v>2.14133395961035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.32465277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1237297.331541245</v>
+        <v>1341854.169804307</v>
       </c>
     </row>
     <row r="9">
@@ -22457,28 +22457,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>981.3356774222949</v>
+        <v>1053.892899567063</v>
       </c>
       <c r="AB9" t="n">
-        <v>1342.706767323772</v>
+        <v>1441.98275966097</v>
       </c>
       <c r="AC9" t="n">
-        <v>1214.560717951174</v>
+        <v>1304.36194891444</v>
       </c>
       <c r="AD9" t="n">
-        <v>981335.6774222949</v>
+        <v>1053892.899567063</v>
       </c>
       <c r="AE9" t="n">
-        <v>1342706.767323772</v>
+        <v>1441982.75966097</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162629359529343e-06</v>
+        <v>2.165890315523535e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.17418981481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>1214560.717951174</v>
+        <v>1304361.94891444</v>
       </c>
     </row>
     <row r="10">
@@ -22563,28 +22563,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>967.1092972263529</v>
+        <v>1039.666519371121</v>
       </c>
       <c r="AB10" t="n">
-        <v>1323.241606316085</v>
+        <v>1422.517598653283</v>
       </c>
       <c r="AC10" t="n">
-        <v>1196.953284590536</v>
+        <v>1286.754515553802</v>
       </c>
       <c r="AD10" t="n">
-        <v>967109.2972263528</v>
+        <v>1039666.519371121</v>
       </c>
       <c r="AE10" t="n">
-        <v>1323241.606316085</v>
+        <v>1422517.598653283</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.172211178765971e-06</v>
+        <v>2.183740518014645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.06712962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1196953.284590536</v>
+        <v>1286754.515553802</v>
       </c>
     </row>
     <row r="11">
@@ -22669,28 +22669,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>940.798958866707</v>
+        <v>1025.363606087722</v>
       </c>
       <c r="AB11" t="n">
-        <v>1287.24264064221</v>
+        <v>1402.947721698937</v>
       </c>
       <c r="AC11" t="n">
-        <v>1164.39000967571</v>
+        <v>1269.052360189484</v>
       </c>
       <c r="AD11" t="n">
-        <v>940798.958866707</v>
+        <v>1025363.606087722</v>
       </c>
       <c r="AE11" t="n">
-        <v>1287242.64064221</v>
+        <v>1402947.721698937</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.181634183319118e-06</v>
+        <v>2.201294860795958e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1164390.00967571</v>
+        <v>1269052.360189484</v>
       </c>
     </row>
     <row r="12">
@@ -22775,28 +22775,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>931.9001655004362</v>
+        <v>1016.464812721451</v>
       </c>
       <c r="AB12" t="n">
-        <v>1275.066918971422</v>
+        <v>1390.772000028149</v>
       </c>
       <c r="AC12" t="n">
-        <v>1153.376321792449</v>
+        <v>1258.038672306223</v>
       </c>
       <c r="AD12" t="n">
-        <v>931900.1655004362</v>
+        <v>1016464.812721451</v>
       </c>
       <c r="AE12" t="n">
-        <v>1275066.918971422</v>
+        <v>1390772.000028149</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.186504500279172e-06</v>
+        <v>2.210367891896411e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.91087962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1153376.321792449</v>
+        <v>1258038.672306223</v>
       </c>
     </row>
     <row r="13">
@@ -22881,28 +22881,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>920.3148175998415</v>
+        <v>1004.879464820857</v>
       </c>
       <c r="AB13" t="n">
-        <v>1259.215334864351</v>
+        <v>1374.920415921078</v>
       </c>
       <c r="AC13" t="n">
-        <v>1139.037590624719</v>
+        <v>1243.699941138493</v>
       </c>
       <c r="AD13" t="n">
-        <v>920314.8175998415</v>
+        <v>1004879.464820857</v>
       </c>
       <c r="AE13" t="n">
-        <v>1259215.334864351</v>
+        <v>1374920.415921078</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193757037491426e-06</v>
+        <v>2.223878818643826e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.83275462962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1139037.590624719</v>
+        <v>1243699.941138493</v>
       </c>
     </row>
     <row r="14">
@@ -22987,28 +22987,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>913.3789885410631</v>
+        <v>997.9436357620783</v>
       </c>
       <c r="AB14" t="n">
-        <v>1249.725427558948</v>
+        <v>1365.430508615675</v>
       </c>
       <c r="AC14" t="n">
-        <v>1130.453386753376</v>
+        <v>1235.115737267149</v>
       </c>
       <c r="AD14" t="n">
-        <v>913378.9885410632</v>
+        <v>997943.6357620783</v>
       </c>
       <c r="AE14" t="n">
-        <v>1249725.427558948</v>
+        <v>1365430.508615675</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>2.230486352162635e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.79224537037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>1130453.386753376</v>
+        <v>1235115.737267149</v>
       </c>
     </row>
     <row r="15">
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>904.9476018906709</v>
+        <v>989.5122491116861</v>
       </c>
       <c r="AB15" t="n">
-        <v>1238.189232377355</v>
+        <v>1353.894313434081</v>
       </c>
       <c r="AC15" t="n">
-        <v>1120.018189848761</v>
+        <v>1224.680540362535</v>
       </c>
       <c r="AD15" t="n">
-        <v>904947.6018906708</v>
+        <v>989512.249111686</v>
       </c>
       <c r="AE15" t="n">
-        <v>1238189.232377355</v>
+        <v>1353894.313434081</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.20069194533672e-06</v>
+        <v>2.236798025971646e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.75752314814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>1120018.189848762</v>
+        <v>1224680.540362535</v>
       </c>
     </row>
     <row r="16">
@@ -23199,28 +23199,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>896.8928037295168</v>
+        <v>981.4574509505319</v>
       </c>
       <c r="AB16" t="n">
-        <v>1227.168302180648</v>
+        <v>1342.873383237375</v>
       </c>
       <c r="AC16" t="n">
-        <v>1110.049081762056</v>
+        <v>1214.71143227583</v>
       </c>
       <c r="AD16" t="n">
-        <v>896892.8037295168</v>
+        <v>981457.4509505319</v>
       </c>
       <c r="AE16" t="n">
-        <v>1227168.302180648</v>
+        <v>1342873.383237375</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.204132930145453e-06</v>
+        <v>2.243208319683923e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.71990740740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>1110049.081762056</v>
+        <v>1214711.43227583</v>
       </c>
     </row>
     <row r="17">
@@ -23305,28 +23305,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>890.3815519131791</v>
+        <v>974.9461991341944</v>
       </c>
       <c r="AB17" t="n">
-        <v>1218.259320189379</v>
+        <v>1333.964401246105</v>
       </c>
       <c r="AC17" t="n">
-        <v>1101.990360508198</v>
+        <v>1206.652711021972</v>
       </c>
       <c r="AD17" t="n">
-        <v>890381.5519131791</v>
+        <v>974946.1991341944</v>
       </c>
       <c r="AE17" t="n">
-        <v>1218259.320189379</v>
+        <v>1333964.401246105</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.20783860609332e-06</v>
+        <v>2.250111712912529e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1101990.360508198</v>
+        <v>1206652.711021972</v>
       </c>
     </row>
     <row r="18">
@@ -23411,28 +23411,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>880.6481902716504</v>
+        <v>965.2128374926655</v>
       </c>
       <c r="AB18" t="n">
-        <v>1204.941705385829</v>
+        <v>1320.646786442556</v>
       </c>
       <c r="AC18" t="n">
-        <v>1089.94376017011</v>
+        <v>1194.606110683884</v>
       </c>
       <c r="AD18" t="n">
-        <v>880648.1902716503</v>
+        <v>965212.8374926655</v>
       </c>
       <c r="AE18" t="n">
-        <v>1204941.705385829</v>
+        <v>1320646.786442556</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.212338355458587e-06</v>
+        <v>2.258494404690122e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.63599537037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>1089943.76017011</v>
+        <v>1194606.110683884</v>
       </c>
     </row>
     <row r="19">
@@ -23517,28 +23517,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>875.4407524291863</v>
+        <v>960.0053996502016</v>
       </c>
       <c r="AB19" t="n">
-        <v>1197.816659193826</v>
+        <v>1313.521740250553</v>
       </c>
       <c r="AC19" t="n">
-        <v>1083.498718386607</v>
+        <v>1188.16106890038</v>
       </c>
       <c r="AD19" t="n">
-        <v>875440.7524291864</v>
+        <v>960005.3996502017</v>
       </c>
       <c r="AE19" t="n">
-        <v>1197816.659193826</v>
+        <v>1313521.740250553</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.213926502293387e-06</v>
+        <v>2.261453001788096e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.61863425925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>1083498.718386607</v>
+        <v>1188161.06890038</v>
       </c>
     </row>
     <row r="20">
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>869.2520188809285</v>
+        <v>953.8166661019436</v>
       </c>
       <c r="AB20" t="n">
-        <v>1189.348960925445</v>
+        <v>1305.054041982172</v>
       </c>
       <c r="AC20" t="n">
-        <v>1075.839165356471</v>
+        <v>1180.501515870244</v>
       </c>
       <c r="AD20" t="n">
-        <v>869252.0188809285</v>
+        <v>953816.6661019436</v>
       </c>
       <c r="AE20" t="n">
-        <v>1189348.960925445</v>
+        <v>1305054.041982172</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.215673463811668e-06</v>
+        <v>2.264707458595868e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.60127314814815</v>
       </c>
       <c r="AH20" t="n">
-        <v>1075839.165356471</v>
+        <v>1180501.515870244</v>
       </c>
     </row>
     <row r="21">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>861.5933942083666</v>
+        <v>946.1580414293818</v>
       </c>
       <c r="AB21" t="n">
-        <v>1178.870092773771</v>
+        <v>1294.575173830498</v>
       </c>
       <c r="AC21" t="n">
-        <v>1066.360385674009</v>
+        <v>1171.022736187783</v>
       </c>
       <c r="AD21" t="n">
-        <v>861593.3942083666</v>
+        <v>946158.0414293818</v>
       </c>
       <c r="AE21" t="n">
-        <v>1178870.092773771</v>
+        <v>1294575.173830498</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.217367487102121e-06</v>
+        <v>2.267863295500374e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.58391203703704</v>
       </c>
       <c r="AH21" t="n">
-        <v>1066360.385674009</v>
+        <v>1171022.736187783</v>
       </c>
     </row>
     <row r="22">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>856.1301912309177</v>
+        <v>940.6948384519329</v>
       </c>
       <c r="AB22" t="n">
-        <v>1171.395097440521</v>
+        <v>1287.100178497247</v>
       </c>
       <c r="AC22" t="n">
-        <v>1059.598793404142</v>
+        <v>1164.261143917915</v>
       </c>
       <c r="AD22" t="n">
-        <v>856130.1912309177</v>
+        <v>940694.8384519329</v>
       </c>
       <c r="AE22" t="n">
-        <v>1171395.097440521</v>
+        <v>1287100.178497247</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219061510392574e-06</v>
+        <v>2.27101913240488e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.56655092592593</v>
       </c>
       <c r="AH22" t="n">
-        <v>1059598.793404142</v>
+        <v>1164261.143917915</v>
       </c>
     </row>
     <row r="23">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>849.1272344133718</v>
+        <v>933.6918816343868</v>
       </c>
       <c r="AB23" t="n">
-        <v>1161.813342974104</v>
+        <v>1277.518424030831</v>
       </c>
       <c r="AC23" t="n">
-        <v>1050.931508135923</v>
+        <v>1155.593858649697</v>
       </c>
       <c r="AD23" t="n">
-        <v>849127.2344133718</v>
+        <v>933691.8816343868</v>
       </c>
       <c r="AE23" t="n">
-        <v>1161813.342974104</v>
+        <v>1277518.424030831</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.221126101277815e-06</v>
+        <v>2.274865308632246e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.54340277777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>1050931.508135923</v>
+        <v>1155593.858649697</v>
       </c>
     </row>
     <row r="24">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>843.1454832678245</v>
+        <v>915.7879567586135</v>
       </c>
       <c r="AB24" t="n">
-        <v>1153.628847160531</v>
+        <v>1253.021484150378</v>
       </c>
       <c r="AC24" t="n">
-        <v>1043.528129115785</v>
+        <v>1133.434872329763</v>
       </c>
       <c r="AD24" t="n">
-        <v>843145.4832678245</v>
+        <v>915787.9567586135</v>
       </c>
       <c r="AE24" t="n">
-        <v>1153628.847160531</v>
+        <v>1253021.484150378</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223084815707401e-06</v>
+        <v>2.27851424505308e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.52314814814815</v>
       </c>
       <c r="AH24" t="n">
-        <v>1043528.129115785</v>
+        <v>1133434.872329763</v>
       </c>
     </row>
     <row r="25">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>838.510237562186</v>
+        <v>911.1527110529751</v>
       </c>
       <c r="AB25" t="n">
-        <v>1147.286699493468</v>
+        <v>1246.679336483315</v>
       </c>
       <c r="AC25" t="n">
-        <v>1037.791267120807</v>
+        <v>1127.698010334785</v>
       </c>
       <c r="AD25" t="n">
-        <v>838510.2375621861</v>
+        <v>911152.711052975</v>
       </c>
       <c r="AE25" t="n">
-        <v>1147286.699493468</v>
+        <v>1246679.336483315</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.225043530136988e-06</v>
+        <v>2.282163181473915e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.50289351851852</v>
       </c>
       <c r="AH25" t="n">
-        <v>1037791.267120807</v>
+        <v>1127698.010334785</v>
       </c>
     </row>
     <row r="26">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>841.2401359261316</v>
+        <v>913.8826094169206</v>
       </c>
       <c r="AB26" t="n">
-        <v>1151.021866869634</v>
+        <v>1250.414503859482</v>
       </c>
       <c r="AC26" t="n">
-        <v>1041.169955364932</v>
+        <v>1131.07669857891</v>
       </c>
       <c r="AD26" t="n">
-        <v>841240.1359261316</v>
+        <v>913882.6094169206</v>
       </c>
       <c r="AE26" t="n">
-        <v>1151021.866869634</v>
+        <v>1250414.503859482</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.224620024314375e-06</v>
+        <v>2.281374222247789e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>1041169.955364932</v>
+        <v>1131076.69857891</v>
       </c>
     </row>
     <row r="27">
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>844.254846590637</v>
+        <v>916.897320081426</v>
       </c>
       <c r="AB27" t="n">
-        <v>1155.146727000459</v>
+        <v>1254.539363990305</v>
       </c>
       <c r="AC27" t="n">
-        <v>1044.901144634148</v>
+        <v>1134.807887848126</v>
       </c>
       <c r="AD27" t="n">
-        <v>844254.846590637</v>
+        <v>916897.3200814259</v>
       </c>
       <c r="AE27" t="n">
-        <v>1155146.727000459</v>
+        <v>1254539.363990305</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.224725900770028e-06</v>
+        <v>2.28157146205432e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.50578703703704</v>
       </c>
       <c r="AH27" t="n">
-        <v>1044901.144634148</v>
+        <v>1134807.887848126</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1254.150075812994</v>
+        <v>1365.184228994941</v>
       </c>
       <c r="AB2" t="n">
-        <v>1715.983462923744</v>
+        <v>1867.905289788405</v>
       </c>
       <c r="AC2" t="n">
-        <v>1552.212409620218</v>
+        <v>1689.635030552539</v>
       </c>
       <c r="AD2" t="n">
-        <v>1254150.075812994</v>
+        <v>1365184.228994941</v>
       </c>
       <c r="AE2" t="n">
-        <v>1715983.462923744</v>
+        <v>1867905.289788405</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.277912481648099e-07</v>
+        <v>1.859755102905443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86168981481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>1552212.409620218</v>
+        <v>1689635.030552539</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>912.8852697015806</v>
+        <v>1001.763796759881</v>
       </c>
       <c r="AB3" t="n">
-        <v>1249.049899661431</v>
+        <v>1370.657421426478</v>
       </c>
       <c r="AC3" t="n">
-        <v>1129.842330290287</v>
+        <v>1239.843800855307</v>
       </c>
       <c r="AD3" t="n">
-        <v>912885.2697015805</v>
+        <v>1001763.796759881</v>
       </c>
       <c r="AE3" t="n">
-        <v>1249049.899661431</v>
+        <v>1370657.421426478</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.136887905390101e-06</v>
+        <v>2.278888799245429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5775462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1129842.330290287</v>
+        <v>1239843.800855307</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.2025340100971</v>
+        <v>898.0459184338604</v>
       </c>
       <c r="AB4" t="n">
-        <v>1122.237291814622</v>
+        <v>1228.746044590962</v>
       </c>
       <c r="AC4" t="n">
-        <v>1015.132539753766</v>
+        <v>1111.476246651105</v>
       </c>
       <c r="AD4" t="n">
-        <v>820202.5340100972</v>
+        <v>898045.9184338604</v>
       </c>
       <c r="AE4" t="n">
-        <v>1122237.291814622</v>
+        <v>1228746.044590962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212142084407913e-06</v>
+        <v>2.429735602036648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015132.539753766</v>
+        <v>1111476.246651105</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>778.6151550399869</v>
+        <v>856.2879472631581</v>
       </c>
       <c r="AB5" t="n">
-        <v>1065.335605202045</v>
+        <v>1171.610946203537</v>
       </c>
       <c r="AC5" t="n">
-        <v>963.6614702494734</v>
+        <v>1059.794041864161</v>
       </c>
       <c r="AD5" t="n">
-        <v>778615.1550399869</v>
+        <v>856287.9472631582</v>
       </c>
       <c r="AE5" t="n">
-        <v>1065335.605202045</v>
+        <v>1171610.946203537</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251773661181373e-06</v>
+        <v>2.509176992852115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.23784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>963661.4702494734</v>
+        <v>1059794.041864161</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>739.9279994996808</v>
+        <v>817.6860430688724</v>
       </c>
       <c r="AB6" t="n">
-        <v>1012.402132234952</v>
+        <v>1118.794117889094</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.7798936497643</v>
+        <v>1012.017977515164</v>
       </c>
       <c r="AD6" t="n">
-        <v>739927.9994996808</v>
+        <v>817686.0430688724</v>
       </c>
       <c r="AE6" t="n">
-        <v>1012402.132234952</v>
+        <v>1118794.117889094</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276285676873629e-06</v>
+        <v>2.558311263472086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.98321759259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>915779.8936497642</v>
+        <v>1012017.977515165</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>720.0167729609354</v>
+        <v>797.7748165301272</v>
       </c>
       <c r="AB7" t="n">
-        <v>985.1587136633217</v>
+        <v>1091.550699317463</v>
       </c>
       <c r="AC7" t="n">
-        <v>891.1365487102322</v>
+        <v>987.3746325756325</v>
       </c>
       <c r="AD7" t="n">
-        <v>720016.7729609355</v>
+        <v>797774.8165301272</v>
       </c>
       <c r="AE7" t="n">
-        <v>985158.7136633217</v>
+        <v>1091550.699317463</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291806135407744e-06</v>
+        <v>2.589421981551554e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.82696759259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>891136.5487102323</v>
+        <v>987374.6325756325</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>702.0945228603864</v>
+        <v>779.8525664295781</v>
       </c>
       <c r="AB8" t="n">
-        <v>960.6367004018789</v>
+        <v>1067.028686056021</v>
       </c>
       <c r="AC8" t="n">
-        <v>868.9548819775999</v>
+        <v>965.192965843</v>
       </c>
       <c r="AD8" t="n">
-        <v>702094.5228603864</v>
+        <v>779852.5664295781</v>
       </c>
       <c r="AE8" t="n">
-        <v>960636.7004018789</v>
+        <v>1067028.686056021</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304921209224394e-06</v>
+        <v>2.615711112327193e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.69965277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>868954.8819775999</v>
+        <v>965192.965843</v>
       </c>
     </row>
     <row r="9">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>688.1602295812598</v>
+        <v>765.9182731504515</v>
       </c>
       <c r="AB9" t="n">
-        <v>941.5711855997447</v>
+        <v>1047.963171253886</v>
       </c>
       <c r="AC9" t="n">
-        <v>851.7089531495631</v>
+        <v>947.9470370149634</v>
       </c>
       <c r="AD9" t="n">
-        <v>688160.2295812599</v>
+        <v>765918.2731504515</v>
       </c>
       <c r="AE9" t="n">
-        <v>941571.1855997447</v>
+        <v>1047963.171253887</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.31185100805328e-06</v>
+        <v>2.629601875750128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.63310185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>851708.9531495631</v>
+        <v>947947.0370149633</v>
       </c>
     </row>
     <row r="10">
@@ -25510,28 +25510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>673.252342453998</v>
+        <v>751.0103860231898</v>
       </c>
       <c r="AB10" t="n">
-        <v>921.1735567426623</v>
+        <v>1027.565542396804</v>
       </c>
       <c r="AC10" t="n">
-        <v>833.2580453623489</v>
+        <v>929.4961292277491</v>
       </c>
       <c r="AD10" t="n">
-        <v>673252.342453998</v>
+        <v>751010.3860231898</v>
       </c>
       <c r="AE10" t="n">
-        <v>921173.5567426623</v>
+        <v>1027565.542396804</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320498938823211e-06</v>
+        <v>2.64693663010437e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.54918981481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>833258.0453623489</v>
+        <v>929496.1292277491</v>
       </c>
     </row>
     <row r="11">
@@ -25616,28 +25616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>661.926039580226</v>
+        <v>728.7342813694518</v>
       </c>
       <c r="AB11" t="n">
-        <v>905.6764094695502</v>
+        <v>997.0863932571816</v>
       </c>
       <c r="AC11" t="n">
-        <v>819.2399240745997</v>
+        <v>901.9258673042577</v>
       </c>
       <c r="AD11" t="n">
-        <v>661926.0395802259</v>
+        <v>728734.2813694518</v>
       </c>
       <c r="AE11" t="n">
-        <v>905676.4094695502</v>
+        <v>997086.3932571816</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.324794268675826e-06</v>
+        <v>2.655546607432636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.50868055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>819239.9240745996</v>
+        <v>901925.8673042577</v>
       </c>
     </row>
     <row r="12">
@@ -25722,28 +25722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>661.0571455865203</v>
+        <v>727.6947951751541</v>
       </c>
       <c r="AB12" t="n">
-        <v>904.4875503744647</v>
+        <v>995.6641223872492</v>
       </c>
       <c r="AC12" t="n">
-        <v>818.164528022975</v>
+        <v>900.6393359699819</v>
       </c>
       <c r="AD12" t="n">
-        <v>661057.1455865203</v>
+        <v>727694.7951751541</v>
       </c>
       <c r="AE12" t="n">
-        <v>904487.5503744647</v>
+        <v>995664.1223872493</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.325882418905155e-06</v>
+        <v>2.657727801689131e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>818164.528022975</v>
+        <v>900639.3359699819</v>
       </c>
     </row>
   </sheetData>
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>959.6631706425107</v>
+        <v>1044.739911351467</v>
       </c>
       <c r="AB2" t="n">
-        <v>1313.053487424152</v>
+        <v>1429.459237383049</v>
       </c>
       <c r="AC2" t="n">
-        <v>1187.737505466534</v>
+        <v>1293.033654025851</v>
       </c>
       <c r="AD2" t="n">
-        <v>959663.1706425108</v>
+        <v>1044739.911351467</v>
       </c>
       <c r="AE2" t="n">
-        <v>1313053.487424152</v>
+        <v>1429459.237383049</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063274994920217e-06</v>
+        <v>2.224437784376407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23553240740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1187737.505466535</v>
+        <v>1293033.654025851</v>
       </c>
     </row>
     <row r="3">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.4106900978074</v>
+        <v>821.4020004436406</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.58959433857</v>
+        <v>1123.878454705721</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.4266576157733</v>
+        <v>1016.617072361924</v>
       </c>
       <c r="AD3" t="n">
-        <v>736410.6900978074</v>
+        <v>821402.0004436406</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007589.59433857</v>
+        <v>1123878.454705721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243321223651026e-06</v>
+        <v>2.601105754597357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>911426.6576157733</v>
+        <v>1016617.072361924</v>
       </c>
     </row>
     <row r="4">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>678.0554350179883</v>
+        <v>752.4015858655004</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.7453598862028</v>
+        <v>1029.469043396459</v>
       </c>
       <c r="AC4" t="n">
-        <v>839.2026448374534</v>
+        <v>931.2179627635772</v>
       </c>
       <c r="AD4" t="n">
-        <v>678055.4350179883</v>
+        <v>752401.5858655004</v>
       </c>
       <c r="AE4" t="n">
-        <v>927745.3598862027</v>
+        <v>1029469.043396459</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.307393340833561e-06</v>
+        <v>2.735148630679961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>839202.6448374534</v>
+        <v>931217.9627635772</v>
       </c>
     </row>
     <row r="5">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>634.6283457864231</v>
+        <v>709.0597479799558</v>
       </c>
       <c r="AB5" t="n">
-        <v>868.3265005316133</v>
+        <v>970.166828694519</v>
       </c>
       <c r="AC5" t="n">
-        <v>785.4546380247732</v>
+        <v>877.5754682016093</v>
       </c>
       <c r="AD5" t="n">
-        <v>634628.3457864231</v>
+        <v>709059.7479799557</v>
       </c>
       <c r="AE5" t="n">
-        <v>868326.5005316134</v>
+        <v>970166.828694519</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.340145289002287e-06</v>
+        <v>2.80366775448755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.88194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>785454.6380247732</v>
+        <v>877575.4682016093</v>
       </c>
     </row>
     <row r="6">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>610.7792790063348</v>
+        <v>685.2106811998676</v>
       </c>
       <c r="AB6" t="n">
-        <v>835.6951552165274</v>
+        <v>937.5354833794328</v>
       </c>
       <c r="AC6" t="n">
-        <v>755.937582508178</v>
+        <v>848.0584126850142</v>
       </c>
       <c r="AD6" t="n">
-        <v>610779.2790063348</v>
+        <v>685210.6811998676</v>
       </c>
       <c r="AE6" t="n">
-        <v>835695.1552165274</v>
+        <v>937535.4833794328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359414650128878e-06</v>
+        <v>2.843980463030084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.69675925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>755937.5825081781</v>
+        <v>848058.4126850142</v>
       </c>
     </row>
     <row r="7">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>591.7483713324127</v>
+        <v>666.1797735259454</v>
       </c>
       <c r="AB7" t="n">
-        <v>809.656227752675</v>
+        <v>911.4965559155808</v>
       </c>
       <c r="AC7" t="n">
-        <v>732.3837737356118</v>
+        <v>824.5046039124479</v>
       </c>
       <c r="AD7" t="n">
-        <v>591748.3713324127</v>
+        <v>666179.7735259454</v>
       </c>
       <c r="AE7" t="n">
-        <v>809656.2277526751</v>
+        <v>911496.5559155807</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.371883060269613e-06</v>
+        <v>2.870065156792899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.58101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>732383.7737356118</v>
+        <v>824504.6039124479</v>
       </c>
     </row>
     <row r="8">
@@ -26655,28 +26655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>586.419087125014</v>
+        <v>660.8504893185467</v>
       </c>
       <c r="AB8" t="n">
-        <v>802.3644659886866</v>
+        <v>904.2047941515922</v>
       </c>
       <c r="AC8" t="n">
-        <v>725.7879274803263</v>
+        <v>817.9087576571625</v>
       </c>
       <c r="AD8" t="n">
-        <v>586419.087125014</v>
+        <v>660850.4893185467</v>
       </c>
       <c r="AE8" t="n">
-        <v>802364.4659886865</v>
+        <v>904204.7941515922</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.375164220832964e-06</v>
+        <v>2.876929549888377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>725787.9274803263</v>
+        <v>817908.7576571625</v>
       </c>
     </row>
   </sheetData>
@@ -50125,28 +50125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>768.8170625671257</v>
+        <v>850.7695519896855</v>
       </c>
       <c r="AB2" t="n">
-        <v>1051.929422819343</v>
+        <v>1164.060434335955</v>
       </c>
       <c r="AC2" t="n">
-        <v>951.5347550976821</v>
+        <v>1052.964140252011</v>
       </c>
       <c r="AD2" t="n">
-        <v>768817.0625671258</v>
+        <v>850769.5519896855</v>
       </c>
       <c r="AE2" t="n">
-        <v>1051929.422819343</v>
+        <v>1164060.434335954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.175383905551146e-06</v>
+        <v>2.555115084879207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.19097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>951534.7550976821</v>
+        <v>1052964.140252011</v>
       </c>
     </row>
     <row r="3">
@@ -50231,28 +50231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.0203175207707</v>
+        <v>689.7074217404364</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.6026635640516</v>
+        <v>943.6881221692304</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.8995321642901</v>
+        <v>853.6238522639964</v>
       </c>
       <c r="AD3" t="n">
-        <v>618020.3175207707</v>
+        <v>689707.4217404365</v>
       </c>
       <c r="AE3" t="n">
-        <v>845602.6635640516</v>
+        <v>943688.1221692304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330530137755052e-06</v>
+        <v>2.892380616927214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>764899.5321642901</v>
+        <v>853623.8522639964</v>
       </c>
     </row>
     <row r="4">
@@ -50337,28 +50337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.8574987298908</v>
+        <v>633.6298542955772</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.7582171656742</v>
+        <v>866.9603204235025</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.3890118783157</v>
+        <v>784.2188442287345</v>
       </c>
       <c r="AD4" t="n">
-        <v>561857.4987298908</v>
+        <v>633629.8542955772</v>
       </c>
       <c r="AE4" t="n">
-        <v>768758.2171656742</v>
+        <v>866960.3204235025</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.383911796806913e-06</v>
+        <v>3.008424644461631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.90219907407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>695389.0118783157</v>
+        <v>784218.8442287345</v>
       </c>
     </row>
     <row r="5">
@@ -50443,28 +50443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>532.2095138123685</v>
+        <v>603.9818693780547</v>
       </c>
       <c r="AB5" t="n">
-        <v>728.192536224738</v>
+        <v>826.3946394825662</v>
       </c>
       <c r="AC5" t="n">
-        <v>658.6948625920918</v>
+        <v>747.5246949425103</v>
       </c>
       <c r="AD5" t="n">
-        <v>532209.5138123685</v>
+        <v>603981.8693780547</v>
       </c>
       <c r="AE5" t="n">
-        <v>728192.536224738</v>
+        <v>826394.6394825662</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411806027895284e-06</v>
+        <v>3.069062679658806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.64756944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>658694.8625920918</v>
+        <v>747524.6949425103</v>
       </c>
     </row>
     <row r="6">
@@ -50549,28 +50549,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>531.4253440656753</v>
+        <v>603.1976996313616</v>
       </c>
       <c r="AB6" t="n">
-        <v>727.1196005821847</v>
+        <v>825.3217038400129</v>
       </c>
       <c r="AC6" t="n">
-        <v>657.7243264213893</v>
+        <v>746.5541587718078</v>
       </c>
       <c r="AD6" t="n">
-        <v>531425.3440656753</v>
+        <v>603197.6996313616</v>
       </c>
       <c r="AE6" t="n">
-        <v>727119.6005821847</v>
+        <v>825321.7038400129</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413595702013785e-06</v>
+        <v>3.072953173067474e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.63310185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>657724.3264213892</v>
+        <v>746554.1587718078</v>
       </c>
     </row>
   </sheetData>
@@ -50846,28 +50846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.2372347337423</v>
+        <v>526.8238761210263</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.7168887965028</v>
+        <v>720.8236691378776</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.617592742968</v>
+        <v>652.0292698377314</v>
       </c>
       <c r="AD2" t="n">
-        <v>460237.2347337423</v>
+        <v>526823.8761210262</v>
       </c>
       <c r="AE2" t="n">
-        <v>629716.8887965027</v>
+        <v>720823.6691378775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410843158612493e-06</v>
+        <v>3.355728494061865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>569617.592742968</v>
+        <v>652029.2698377314</v>
       </c>
     </row>
     <row r="3">
@@ -50952,28 +50952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.6239181781856</v>
+        <v>484.6982717329801</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.0939102872087</v>
+        <v>663.1855587636499</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.2533686738574</v>
+        <v>599.8920598220241</v>
       </c>
       <c r="AD3" t="n">
-        <v>427623.9181781856</v>
+        <v>484698.27173298</v>
       </c>
       <c r="AE3" t="n">
-        <v>585093.9102872087</v>
+        <v>663185.5587636499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468866567389232e-06</v>
+        <v>3.49373873635286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>529253.3686738574</v>
+        <v>599892.0598220241</v>
       </c>
     </row>
   </sheetData>
@@ -51249,28 +51249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1596.467147867348</v>
+        <v>1711.699710878884</v>
       </c>
       <c r="AB2" t="n">
-        <v>2184.356782871887</v>
+        <v>2342.023059286161</v>
       </c>
       <c r="AC2" t="n">
-        <v>1975.884837278594</v>
+        <v>2118.503665557897</v>
       </c>
       <c r="AD2" t="n">
-        <v>1596467.147867348</v>
+        <v>1711699.710878884</v>
       </c>
       <c r="AE2" t="n">
-        <v>2184356.782871888</v>
+        <v>2342023.059286161</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159404301230051e-07</v>
+        <v>1.583396207106135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.64409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1975884.837278594</v>
+        <v>2118503.665557897</v>
       </c>
     </row>
     <row r="3">
@@ -51355,28 +51355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1089.339986167045</v>
+        <v>1181.355444375681</v>
       </c>
       <c r="AB3" t="n">
-        <v>1490.483027362157</v>
+        <v>1616.382636718729</v>
       </c>
       <c r="AC3" t="n">
-        <v>1348.233419136779</v>
+        <v>1462.117346477571</v>
       </c>
       <c r="AD3" t="n">
-        <v>1089339.986167045</v>
+        <v>1181355.444375681</v>
       </c>
       <c r="AE3" t="n">
-        <v>1490483.027362157</v>
+        <v>1616382.636718729</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.047428214066253e-06</v>
+        <v>2.03261635303258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.30381944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1348233.419136779</v>
+        <v>1462117.346477571</v>
       </c>
     </row>
     <row r="4">
@@ -51461,28 +51461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>964.7673856805018</v>
+        <v>1045.344928442556</v>
       </c>
       <c r="AB4" t="n">
-        <v>1320.037299621207</v>
+        <v>1430.287048458549</v>
       </c>
       <c r="AC4" t="n">
-        <v>1194.054792429344</v>
+        <v>1293.782459974145</v>
       </c>
       <c r="AD4" t="n">
-        <v>964767.3856805018</v>
+        <v>1045344.928442556</v>
       </c>
       <c r="AE4" t="n">
-        <v>1320037.299621206</v>
+        <v>1430287.048458549</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134007636488673e-06</v>
+        <v>2.200630492320217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.13483796296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1194054.792429344</v>
+        <v>1293782.459974145</v>
       </c>
     </row>
     <row r="5">
@@ -51567,28 +51567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>899.6796311722655</v>
+        <v>980.3424252803406</v>
       </c>
       <c r="AB5" t="n">
-        <v>1230.981362433967</v>
+        <v>1341.347755923958</v>
       </c>
       <c r="AC5" t="n">
-        <v>1113.498228896462</v>
+        <v>1213.331408691974</v>
       </c>
       <c r="AD5" t="n">
-        <v>899679.6311722655</v>
+        <v>980342.4252803406</v>
       </c>
       <c r="AE5" t="n">
-        <v>1230981.362433967</v>
+        <v>1341347.755923958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.179540768434438e-06</v>
+        <v>2.288991095323696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.58796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1113498.228896462</v>
+        <v>1213331.408691974</v>
       </c>
     </row>
     <row r="6">
@@ -51673,28 +51673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>867.5552045891824</v>
+        <v>948.0474064966652</v>
       </c>
       <c r="AB6" t="n">
-        <v>1187.027304753315</v>
+        <v>1297.160286468459</v>
       </c>
       <c r="AC6" t="n">
-        <v>1073.739084790943</v>
+        <v>1173.361129303805</v>
       </c>
       <c r="AD6" t="n">
-        <v>867555.2045891824</v>
+        <v>948047.4064966652</v>
       </c>
       <c r="AE6" t="n">
-        <v>1187027.304753315</v>
+        <v>1297160.286468459</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.206738782771871e-06</v>
+        <v>2.3417709688939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1073739.084790943</v>
+        <v>1173361.129303805</v>
       </c>
     </row>
     <row r="7">
@@ -51779,28 +51779,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>843.5106754754596</v>
+        <v>912.6503027909321</v>
       </c>
       <c r="AB7" t="n">
-        <v>1154.12851925016</v>
+        <v>1248.728407568273</v>
       </c>
       <c r="AC7" t="n">
-        <v>1043.980113202475</v>
+        <v>1129.551520951284</v>
       </c>
       <c r="AD7" t="n">
-        <v>843510.6754754597</v>
+        <v>912650.3027909321</v>
       </c>
       <c r="AE7" t="n">
-        <v>1154128.51925016</v>
+        <v>1248728.407568273</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>2.380361548551137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.06712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1043980.113202475</v>
+        <v>1129551.520951284</v>
       </c>
     </row>
     <row r="8">
@@ -51885,28 +51885,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>814.7502075124092</v>
+        <v>895.3276607659126</v>
       </c>
       <c r="AB8" t="n">
-        <v>1114.777178160817</v>
+        <v>1225.026804528611</v>
       </c>
       <c r="AC8" t="n">
-        <v>1008.384408876744</v>
+        <v>1108.111965640318</v>
       </c>
       <c r="AD8" t="n">
-        <v>814750.2075124092</v>
+        <v>895327.6607659126</v>
       </c>
       <c r="AE8" t="n">
-        <v>1114777.178160817</v>
+        <v>1225026.804528611</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239143748937653e-06</v>
+        <v>2.404655339644552e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.93402777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1008384.408876744</v>
+        <v>1108111.965640318</v>
       </c>
     </row>
     <row r="9">
@@ -51991,28 +51991,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>798.6448955279978</v>
+        <v>879.2223487815013</v>
       </c>
       <c r="AB9" t="n">
-        <v>1092.741179787527</v>
+        <v>1202.99080615532</v>
       </c>
       <c r="AC9" t="n">
-        <v>988.4514952604825</v>
+        <v>1088.179052024057</v>
       </c>
       <c r="AD9" t="n">
-        <v>798644.8955279979</v>
+        <v>879222.3487815013</v>
       </c>
       <c r="AE9" t="n">
-        <v>1092741.179787527</v>
+        <v>1202990.80615532</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.25094248020827e-06</v>
+        <v>2.42755170027684e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH9" t="n">
-        <v>988451.4952604825</v>
+        <v>1088179.052024056</v>
       </c>
     </row>
     <row r="10">
@@ -52097,28 +52097,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>785.8884546563025</v>
+        <v>866.4659079098061</v>
       </c>
       <c r="AB10" t="n">
-        <v>1075.28725461242</v>
+        <v>1185.536880980214</v>
       </c>
       <c r="AC10" t="n">
-        <v>972.6633482073506</v>
+        <v>1072.390904970925</v>
       </c>
       <c r="AD10" t="n">
-        <v>785888.4546563026</v>
+        <v>866465.9079098061</v>
       </c>
       <c r="AE10" t="n">
-        <v>1075287.25461242</v>
+        <v>1185536.880980214</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.25825437000978e-06</v>
+        <v>2.441740994189807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.73726851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>972663.3482073506</v>
+        <v>1072390.904970925</v>
       </c>
     </row>
     <row r="11">
@@ -52203,28 +52203,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.1400260747123</v>
+        <v>853.7174793282157</v>
       </c>
       <c r="AB11" t="n">
-        <v>1057.844292206113</v>
+        <v>1168.093918573907</v>
       </c>
       <c r="AC11" t="n">
-        <v>956.88511765175</v>
+        <v>1056.612674415324</v>
       </c>
       <c r="AD11" t="n">
-        <v>773140.0260747123</v>
+        <v>853717.4793282157</v>
       </c>
       <c r="AE11" t="n">
-        <v>1057844.292206113</v>
+        <v>1168093.918573907</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.265289294288505e-06</v>
+        <v>2.455392814848496e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.66782407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>956885.11765175</v>
+        <v>1056612.674415324</v>
       </c>
     </row>
     <row r="12">
@@ -52309,28 +52309,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>762.6964325415375</v>
+        <v>843.273885795041</v>
       </c>
       <c r="AB12" t="n">
-        <v>1043.554906795194</v>
+        <v>1153.804533162988</v>
       </c>
       <c r="AC12" t="n">
-        <v>943.9594911291706</v>
+        <v>1043.687047892745</v>
       </c>
       <c r="AD12" t="n">
-        <v>762696.4325415376</v>
+        <v>843273.885795041</v>
       </c>
       <c r="AE12" t="n">
-        <v>1043554.906795194</v>
+        <v>1153804.533162988</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.270496246116853e-06</v>
+        <v>2.465497312028942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.61574074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>943959.4911291706</v>
+        <v>1043687.047892745</v>
       </c>
     </row>
     <row r="13">
@@ -52415,28 +52415,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>752.6727902134257</v>
+        <v>833.2502434669293</v>
       </c>
       <c r="AB13" t="n">
-        <v>1029.840117149982</v>
+        <v>1140.089743517776</v>
       </c>
       <c r="AC13" t="n">
-        <v>931.5536217588694</v>
+        <v>1031.281178522443</v>
       </c>
       <c r="AD13" t="n">
-        <v>752672.7902134258</v>
+        <v>833250.2434669293</v>
       </c>
       <c r="AE13" t="n">
-        <v>1029840.117149982</v>
+        <v>1140089.743517776</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.273265901344698e-06</v>
+        <v>2.470872044571733e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.58680555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>931553.6217588694</v>
+        <v>1031281.178522443</v>
       </c>
     </row>
     <row r="14">
@@ -52521,28 +52521,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>742.5701042267808</v>
+        <v>811.7949828882739</v>
       </c>
       <c r="AB14" t="n">
-        <v>1016.017176484004</v>
+        <v>1110.733709454766</v>
       </c>
       <c r="AC14" t="n">
-        <v>919.0499231494334</v>
+        <v>1004.726843148955</v>
       </c>
       <c r="AD14" t="n">
-        <v>742570.1042267808</v>
+        <v>811794.9828882739</v>
       </c>
       <c r="AE14" t="n">
-        <v>1016017.176484004</v>
+        <v>1110733.709454766</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.278805211800387e-06</v>
+        <v>2.481621509657314e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.53472222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>919049.9231494335</v>
+        <v>1004726.843148955</v>
       </c>
     </row>
     <row r="15">
@@ -52627,28 +52627,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>731.1934540957777</v>
+        <v>800.2477405566787</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000.451141872385</v>
+        <v>1094.934263068299</v>
       </c>
       <c r="AC15" t="n">
-        <v>904.96948903408</v>
+        <v>990.43527375095</v>
       </c>
       <c r="AD15" t="n">
-        <v>731193.4540957777</v>
+        <v>800247.7405566786</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000451.141872385</v>
+        <v>1094934.263068299</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.282627336014812e-06</v>
+        <v>2.489038640566365e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.49710648148148</v>
       </c>
       <c r="AH15" t="n">
-        <v>904969.4890340799</v>
+        <v>990435.27375095</v>
       </c>
     </row>
     <row r="16">
@@ -52733,28 +52733,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>727.6557379508557</v>
+        <v>796.7100244117568</v>
       </c>
       <c r="AB16" t="n">
-        <v>995.6106825698812</v>
+        <v>1090.093803765796</v>
       </c>
       <c r="AC16" t="n">
-        <v>900.5909963737802</v>
+        <v>986.0567810906504</v>
       </c>
       <c r="AD16" t="n">
-        <v>727655.7379508557</v>
+        <v>796710.0244117568</v>
       </c>
       <c r="AE16" t="n">
-        <v>995610.6825698812</v>
+        <v>1090093.803765796</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.284012163628734e-06</v>
+        <v>2.491726006837761e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.48263888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>900590.9963737802</v>
+        <v>986056.7810906504</v>
       </c>
     </row>
     <row r="17">
@@ -52839,28 +52839,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>730.6603461256682</v>
+        <v>799.714632586569</v>
       </c>
       <c r="AB17" t="n">
-        <v>999.7217200286167</v>
+        <v>1094.204841224532</v>
       </c>
       <c r="AC17" t="n">
-        <v>904.3096821873315</v>
+        <v>989.7754669042014</v>
       </c>
       <c r="AD17" t="n">
-        <v>730660.3461256681</v>
+        <v>799714.6325865689</v>
       </c>
       <c r="AE17" t="n">
-        <v>999721.7200286167</v>
+        <v>1094204.841224532</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.283624411896836e-06</v>
+        <v>2.49097354428177e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.48553240740741</v>
       </c>
       <c r="AH17" t="n">
-        <v>904309.6821873315</v>
+        <v>989775.4669042014</v>
       </c>
     </row>
   </sheetData>
@@ -53136,28 +53136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2154.190890782653</v>
+        <v>2285.960777182004</v>
       </c>
       <c r="AB2" t="n">
-        <v>2947.459012963609</v>
+        <v>3127.752384812488</v>
       </c>
       <c r="AC2" t="n">
-        <v>2666.157661551068</v>
+        <v>2829.244087033909</v>
       </c>
       <c r="AD2" t="n">
-        <v>2154190.890782653</v>
+        <v>2285960.777182004</v>
       </c>
       <c r="AE2" t="n">
-        <v>2947459.012963609</v>
+        <v>3127752.384812488</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.888502942511147e-07</v>
+        <v>1.292553339245433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2666157.661551068</v>
+        <v>2829244.087033909</v>
       </c>
     </row>
     <row r="3">
@@ -53242,28 +53242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1335.809266549726</v>
+        <v>1431.618660836701</v>
       </c>
       <c r="AB3" t="n">
-        <v>1827.713170238982</v>
+        <v>1958.803810314584</v>
       </c>
       <c r="AC3" t="n">
-        <v>1653.278790482918</v>
+        <v>1771.858323856574</v>
       </c>
       <c r="AD3" t="n">
-        <v>1335809.266549726</v>
+        <v>1431618.660836701</v>
       </c>
       <c r="AE3" t="n">
-        <v>1827713.170238982</v>
+        <v>1958803.810314584</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.436261527912595e-07</v>
+        <v>1.770612780409202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.36863425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1653278.790482918</v>
+        <v>1771858.323856574</v>
       </c>
     </row>
     <row r="4">
@@ -53348,28 +53348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1146.745781224067</v>
+        <v>1242.555086002491</v>
       </c>
       <c r="AB4" t="n">
-        <v>1569.028168724114</v>
+        <v>1700.118686330167</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.282322445949</v>
+        <v>1537.861745038378</v>
       </c>
       <c r="AD4" t="n">
-        <v>1146745.781224067</v>
+        <v>1242555.086002491</v>
       </c>
       <c r="AE4" t="n">
-        <v>1569028.168724114</v>
+        <v>1700118.686330167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.042056214209241e-06</v>
+        <v>1.955306182777942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82060185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1419282.322445949</v>
+        <v>1537861.745038378</v>
       </c>
     </row>
     <row r="5">
@@ -53454,28 +53454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1072.288630694798</v>
+        <v>1156.111194277649</v>
       </c>
       <c r="AB5" t="n">
-        <v>1467.152610552317</v>
+        <v>1581.842340036888</v>
       </c>
       <c r="AC5" t="n">
-        <v>1327.129624562825</v>
+        <v>1430.873527233435</v>
       </c>
       <c r="AD5" t="n">
-        <v>1072288.630694798</v>
+        <v>1156111.194277649</v>
       </c>
       <c r="AE5" t="n">
-        <v>1467152.610552317</v>
+        <v>1581842.340036888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.0945807155299e-06</v>
+        <v>2.053862748900957e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.11168981481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>1327129.624562825</v>
+        <v>1430873.527233435</v>
       </c>
     </row>
     <row r="6">
@@ -53560,28 +53560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1016.345620122609</v>
+        <v>1100.253435051481</v>
       </c>
       <c r="AB6" t="n">
-        <v>1390.608915456007</v>
+        <v>1505.415289593227</v>
       </c>
       <c r="AC6" t="n">
-        <v>1257.891152296756</v>
+        <v>1361.740567218078</v>
       </c>
       <c r="AD6" t="n">
-        <v>1016345.620122609</v>
+        <v>1100253.435051481</v>
       </c>
       <c r="AE6" t="n">
-        <v>1390608.915456007</v>
+        <v>1505415.289593227</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.127728800204827e-06</v>
+        <v>2.116061557399322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.69502314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1257891.152296756</v>
+        <v>1361740.567218078</v>
       </c>
     </row>
     <row r="7">
@@ -53666,28 +53666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>988.4184308978798</v>
+        <v>1072.155653626159</v>
       </c>
       <c r="AB7" t="n">
-        <v>1352.397703098098</v>
+        <v>1466.970665460471</v>
       </c>
       <c r="AC7" t="n">
-        <v>1223.326764416512</v>
+        <v>1326.965044055183</v>
       </c>
       <c r="AD7" t="n">
-        <v>988418.4308978799</v>
+        <v>1072155.653626159</v>
       </c>
       <c r="AE7" t="n">
-        <v>1352397.703098098</v>
+        <v>1466970.665460471</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.14892008783115e-06</v>
+        <v>2.155824724829035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.44328703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1223326.764416512</v>
+        <v>1326965.044055183</v>
       </c>
     </row>
     <row r="8">
@@ -53772,28 +53772,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>966.1023657578439</v>
+        <v>1049.839588486123</v>
       </c>
       <c r="AB8" t="n">
-        <v>1321.863878258191</v>
+        <v>1436.436840620563</v>
       </c>
       <c r="AC8" t="n">
-        <v>1195.707044964833</v>
+        <v>1299.345324603504</v>
       </c>
       <c r="AD8" t="n">
-        <v>966102.3657578439</v>
+        <v>1049839.588486123</v>
       </c>
       <c r="AE8" t="n">
-        <v>1321863.878258191</v>
+        <v>1436436.840620563</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.165414062331235e-06</v>
+        <v>2.186773890410348e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.25231481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>1195707.044964833</v>
+        <v>1299345.324603504</v>
       </c>
     </row>
     <row r="9">
@@ -53878,28 +53878,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>947.3865012525979</v>
+        <v>1019.307574985896</v>
       </c>
       <c r="AB9" t="n">
-        <v>1296.256006756445</v>
+        <v>1394.661592772182</v>
       </c>
       <c r="AC9" t="n">
-        <v>1172.543152778341</v>
+        <v>1261.557047777843</v>
       </c>
       <c r="AD9" t="n">
-        <v>947386.5012525979</v>
+        <v>1019307.574985896</v>
       </c>
       <c r="AE9" t="n">
-        <v>1296256.006756445</v>
+        <v>1394661.592772182</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.179185730360432e-06</v>
+        <v>2.212614941284064e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.09895833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1172543.152778341</v>
+        <v>1261557.047777843</v>
       </c>
     </row>
     <row r="10">
@@ -53984,28 +53984,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>920.5476615030735</v>
+        <v>1004.370135577373</v>
       </c>
       <c r="AB10" t="n">
-        <v>1259.533922165102</v>
+        <v>1374.223529180124</v>
       </c>
       <c r="AC10" t="n">
-        <v>1139.325772400626</v>
+        <v>1243.069564290009</v>
       </c>
       <c r="AD10" t="n">
-        <v>920547.6615030735</v>
+        <v>1004370.135577373</v>
       </c>
       <c r="AE10" t="n">
-        <v>1259533.922165102</v>
+        <v>1374223.529180124</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18922089931194e-06</v>
+        <v>2.231444854323828e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.98900462962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1139325.772400626</v>
+        <v>1243069.564290009</v>
       </c>
     </row>
     <row r="11">
@@ -54090,28 +54090,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>908.9514036895929</v>
+        <v>992.7738777638928</v>
       </c>
       <c r="AB11" t="n">
-        <v>1243.667410633909</v>
+        <v>1358.357017648931</v>
       </c>
       <c r="AC11" t="n">
-        <v>1124.973538461182</v>
+        <v>1228.717330350564</v>
       </c>
       <c r="AD11" t="n">
-        <v>908951.4036895928</v>
+        <v>992773.8777638928</v>
       </c>
       <c r="AE11" t="n">
-        <v>1243667.410633909</v>
+        <v>1358357.017648931</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.196480383234307e-06</v>
+        <v>2.245066493544081e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.90798611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1124973.538461182</v>
+        <v>1228717.330350564</v>
       </c>
     </row>
     <row r="12">
@@ -54196,28 +54196,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>897.9163043894307</v>
+        <v>981.7387784637303</v>
       </c>
       <c r="AB12" t="n">
-        <v>1228.568700937205</v>
+        <v>1343.258307952227</v>
       </c>
       <c r="AC12" t="n">
-        <v>1111.315828426759</v>
+        <v>1215.059620316141</v>
       </c>
       <c r="AD12" t="n">
-        <v>897916.3043894307</v>
+        <v>981738.7784637304</v>
       </c>
       <c r="AE12" t="n">
-        <v>1228568.700937205</v>
+        <v>1343258.307952227</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.203152703015895e-06</v>
+        <v>2.257586382533286e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1111315.828426759</v>
+        <v>1215059.620316142</v>
       </c>
     </row>
     <row r="13">
@@ -54302,28 +54302,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>889.0700261567516</v>
+        <v>972.8925002310515</v>
       </c>
       <c r="AB13" t="n">
-        <v>1216.464832789002</v>
+        <v>1331.154439804024</v>
       </c>
       <c r="AC13" t="n">
-        <v>1100.367136466735</v>
+        <v>1204.110928356117</v>
       </c>
       <c r="AD13" t="n">
-        <v>889070.0261567517</v>
+        <v>972892.5002310515</v>
       </c>
       <c r="AE13" t="n">
-        <v>1216464.832789002</v>
+        <v>1331154.439804024</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.208277044608154e-06</v>
+        <v>2.267201657276994e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.78356481481481</v>
       </c>
       <c r="AH13" t="n">
-        <v>1100367.136466735</v>
+        <v>1204110.928356118</v>
       </c>
     </row>
     <row r="14">
@@ -54408,28 +54408,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>881.3492434768032</v>
+        <v>965.171717551103</v>
       </c>
       <c r="AB14" t="n">
-        <v>1205.900917309404</v>
+        <v>1320.590524324426</v>
       </c>
       <c r="AC14" t="n">
-        <v>1090.811426253961</v>
+        <v>1194.555218143344</v>
       </c>
       <c r="AD14" t="n">
-        <v>881349.2434768032</v>
+        <v>965171.717551103</v>
       </c>
       <c r="AE14" t="n">
-        <v>1205900.917309404</v>
+        <v>1320590.524324426</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.211266243870306e-06</v>
+        <v>2.272810567544158e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.75173611111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1090811.426253961</v>
+        <v>1194555.218143344</v>
       </c>
     </row>
     <row r="15">
@@ -54514,28 +54514,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>870.1085869983174</v>
+        <v>953.9310610726172</v>
       </c>
       <c r="AB15" t="n">
-        <v>1190.520955212775</v>
+        <v>1305.210562227797</v>
       </c>
       <c r="AC15" t="n">
-        <v>1076.899306153922</v>
+        <v>1180.643098043305</v>
       </c>
       <c r="AD15" t="n">
-        <v>870108.5869983174</v>
+        <v>953931.0610726172</v>
       </c>
       <c r="AE15" t="n">
-        <v>1190520.955212775</v>
+        <v>1305210.562227797</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.217244642394608e-06</v>
+        <v>2.284028388078485e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.6880787037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>1076899.306153922</v>
+        <v>1180643.098043305</v>
       </c>
     </row>
     <row r="16">
@@ -54620,28 +54620,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>861.2188810727542</v>
+        <v>945.041355147054</v>
       </c>
       <c r="AB16" t="n">
-        <v>1178.357667379273</v>
+        <v>1293.047274394295</v>
       </c>
       <c r="AC16" t="n">
-        <v>1065.896865439968</v>
+        <v>1169.640657329351</v>
       </c>
       <c r="AD16" t="n">
-        <v>861218.8810727543</v>
+        <v>945041.355147054</v>
       </c>
       <c r="AE16" t="n">
-        <v>1178357.667379273</v>
+        <v>1293047.274394295</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.22103452003055e-06</v>
+        <v>2.291139685024353e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.65046296296296</v>
       </c>
       <c r="AH16" t="n">
-        <v>1065896.865439968</v>
+        <v>1169640.657329351</v>
       </c>
     </row>
     <row r="17">
@@ -54726,28 +54726,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>857.0964773483892</v>
+        <v>940.9189514226889</v>
       </c>
       <c r="AB17" t="n">
-        <v>1172.71721273598</v>
+        <v>1287.406819751002</v>
       </c>
       <c r="AC17" t="n">
-        <v>1060.794727871403</v>
+        <v>1164.538519760786</v>
       </c>
       <c r="AD17" t="n">
-        <v>857096.4773483891</v>
+        <v>940918.9514226889</v>
       </c>
       <c r="AE17" t="n">
-        <v>1172717.21273598</v>
+        <v>1287406.819751002</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.222048712637351e-06</v>
+        <v>2.293042708150712e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1060794.727871403</v>
+        <v>1164538.519760786</v>
       </c>
     </row>
     <row r="18">
@@ -54832,28 +54832,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>847.2500176210324</v>
+        <v>931.0724916953321</v>
       </c>
       <c r="AB18" t="n">
-        <v>1159.244852141865</v>
+        <v>1273.934459156888</v>
       </c>
       <c r="AC18" t="n">
-        <v>1048.608150463814</v>
+        <v>1152.351942353196</v>
       </c>
       <c r="AD18" t="n">
-        <v>847250.0176210324</v>
+        <v>931072.4916953321</v>
       </c>
       <c r="AE18" t="n">
-        <v>1159244.852141865</v>
+        <v>1273934.459156888</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.226585890088831e-06</v>
+        <v>2.30155623266337e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.59259259259259</v>
       </c>
       <c r="AH18" t="n">
-        <v>1048608.150463814</v>
+        <v>1152351.942353196</v>
       </c>
     </row>
     <row r="19">
@@ -54938,28 +54938,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>843.1398710918322</v>
+        <v>926.9623451661319</v>
       </c>
       <c r="AB19" t="n">
-        <v>1153.621168333746</v>
+        <v>1268.310775348768</v>
       </c>
       <c r="AC19" t="n">
-        <v>1043.521183145451</v>
+        <v>1147.264975034834</v>
       </c>
       <c r="AD19" t="n">
-        <v>843139.8710918322</v>
+        <v>926962.3451661319</v>
       </c>
       <c r="AE19" t="n">
-        <v>1153621.168333746</v>
+        <v>1268310.775348768</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.227866975486896e-06</v>
+        <v>2.303960051349298e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1043521.183145451</v>
+        <v>1147264.975034834</v>
       </c>
     </row>
     <row r="20">
@@ -55044,28 +55044,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>834.7102029302845</v>
+        <v>918.5326770045842</v>
       </c>
       <c r="AB20" t="n">
-        <v>1142.087324464404</v>
+        <v>1256.776931479426</v>
       </c>
       <c r="AC20" t="n">
-        <v>1033.088113147148</v>
+        <v>1136.831905036531</v>
       </c>
       <c r="AD20" t="n">
-        <v>834710.2029302844</v>
+        <v>918532.6770045842</v>
       </c>
       <c r="AE20" t="n">
-        <v>1142087.324464404</v>
+        <v>1256776.931479426</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.229681846467487e-06</v>
+        <v>2.307365461154361e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.56076388888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1033088.113147148</v>
+        <v>1136831.905036531</v>
       </c>
     </row>
     <row r="21">
@@ -55150,28 +55150,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>827.6755586440484</v>
+        <v>911.498032718348</v>
       </c>
       <c r="AB21" t="n">
-        <v>1132.462213805373</v>
+        <v>1247.151820820395</v>
       </c>
       <c r="AC21" t="n">
-        <v>1024.381609540487</v>
+        <v>1128.12540142987</v>
       </c>
       <c r="AD21" t="n">
-        <v>827675.5586440484</v>
+        <v>911498.032718348</v>
       </c>
       <c r="AE21" t="n">
-        <v>1132462.213805373</v>
+        <v>1247151.820820395</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.231656853122837e-06</v>
+        <v>2.311071348295166e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.54050925925926</v>
       </c>
       <c r="AH21" t="n">
-        <v>1024381.609540487</v>
+        <v>1128125.40142987</v>
       </c>
     </row>
     <row r="22">
@@ -55256,28 +55256,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>821.0975409089054</v>
+        <v>893.103865988224</v>
       </c>
       <c r="AB22" t="n">
-        <v>1123.46187973849</v>
+        <v>1221.984110406876</v>
       </c>
       <c r="AC22" t="n">
-        <v>1016.240254724899</v>
+        <v>1105.359661975113</v>
       </c>
       <c r="AD22" t="n">
-        <v>821097.5409089054</v>
+        <v>893103.865988224</v>
       </c>
       <c r="AE22" t="n">
-        <v>1123461.87973849</v>
+        <v>1221984.110406876</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.233525102661682e-06</v>
+        <v>2.314576917212143e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.52025462962963</v>
       </c>
       <c r="AH22" t="n">
-        <v>1016240.254724899</v>
+        <v>1105359.661975113</v>
       </c>
     </row>
     <row r="23">
@@ -55362,28 +55362,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>817.0329584199446</v>
+        <v>889.0392834992629</v>
       </c>
       <c r="AB23" t="n">
-        <v>1117.900538660369</v>
+        <v>1216.422769328755</v>
       </c>
       <c r="AC23" t="n">
-        <v>1011.209680233883</v>
+        <v>1100.329087484097</v>
       </c>
       <c r="AD23" t="n">
-        <v>817032.9584199446</v>
+        <v>889039.2834992629</v>
       </c>
       <c r="AE23" t="n">
-        <v>1117900.538660369</v>
+        <v>1216422.769328755</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234912945176252e-06</v>
+        <v>2.317181054121897e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.50578703703704</v>
       </c>
       <c r="AH23" t="n">
-        <v>1011209.680233883</v>
+        <v>1100329.087484098</v>
       </c>
     </row>
     <row r="24">
@@ -55468,28 +55468,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>818.3912236137118</v>
+        <v>890.3975486930302</v>
       </c>
       <c r="AB24" t="n">
-        <v>1119.758977020913</v>
+        <v>1218.281207689299</v>
       </c>
       <c r="AC24" t="n">
-        <v>1012.890751845631</v>
+        <v>1102.010159095846</v>
       </c>
       <c r="AD24" t="n">
-        <v>818391.2236137118</v>
+        <v>890397.5486930303</v>
       </c>
       <c r="AE24" t="n">
-        <v>1119758.977020913</v>
+        <v>1218281.207689299</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.234592673826736e-06</v>
+        <v>2.316580099450416e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.51157407407408</v>
       </c>
       <c r="AH24" t="n">
-        <v>1012890.751845631</v>
+        <v>1102010.159095846</v>
       </c>
     </row>
   </sheetData>
@@ -55765,28 +55765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.9060203855401</v>
+        <v>432.0273711281738</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.3852479595992</v>
+        <v>591.1189088800163</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.342866399967</v>
+        <v>534.703349857106</v>
       </c>
       <c r="AD2" t="n">
-        <v>367906.0203855401</v>
+        <v>432027.3711281738</v>
       </c>
       <c r="AE2" t="n">
-        <v>503385.2479595991</v>
+        <v>591118.9088800163</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.46580099414587e-06</v>
+        <v>3.66585704740786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.53877314814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>455342.866399967</v>
+        <v>534703.349857106</v>
       </c>
     </row>
   </sheetData>
@@ -56062,28 +56062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.04425251273</v>
+        <v>1147.284434427245</v>
       </c>
       <c r="AB2" t="n">
-        <v>1436.716870970906</v>
+        <v>1569.765177800403</v>
       </c>
       <c r="AC2" t="n">
-        <v>1299.598629250235</v>
+        <v>1419.948992410396</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050044.25251273</v>
+        <v>1147284.434427245</v>
       </c>
       <c r="AE2" t="n">
-        <v>1436716.870970906</v>
+        <v>1569765.177800403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015502324137148e-06</v>
+        <v>2.091207137777197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75057870370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1299598.629250235</v>
+        <v>1419948.992410396</v>
       </c>
     </row>
     <row r="3">
@@ -56168,28 +56168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>803.0454016135934</v>
+        <v>878.6577790879733</v>
       </c>
       <c r="AB3" t="n">
-        <v>1098.762146350465</v>
+        <v>1202.218336993578</v>
       </c>
       <c r="AC3" t="n">
-        <v>993.8978292251339</v>
+        <v>1087.480306234944</v>
       </c>
       <c r="AD3" t="n">
-        <v>803045.4016135935</v>
+        <v>878657.7790879733</v>
       </c>
       <c r="AE3" t="n">
-        <v>1098762.146350465</v>
+        <v>1202218.336993578</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.205563630952906e-06</v>
+        <v>2.482597242931398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>993897.829225134</v>
+        <v>1087480.306234944</v>
       </c>
     </row>
     <row r="4">
@@ -56274,28 +56274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.855798754118</v>
+        <v>802.3828353739262</v>
       </c>
       <c r="AB4" t="n">
-        <v>994.5161704700779</v>
+        <v>1097.855593990993</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.6009429726247</v>
+        <v>993.0777969504956</v>
       </c>
       <c r="AD4" t="n">
-        <v>726855.798754118</v>
+        <v>802382.8353739262</v>
       </c>
       <c r="AE4" t="n">
-        <v>994516.1704700779</v>
+        <v>1097855.593990993</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273581240599003e-06</v>
+        <v>2.622664781336413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.35648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>899600.9429726247</v>
+        <v>993077.7969504956</v>
       </c>
     </row>
     <row r="5">
@@ -56380,28 +56380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.2818458703799</v>
+        <v>755.8941338362087</v>
       </c>
       <c r="AB5" t="n">
-        <v>930.7916334367594</v>
+        <v>1034.247701610324</v>
       </c>
       <c r="AC5" t="n">
-        <v>841.9581863158168</v>
+        <v>935.5405525443998</v>
       </c>
       <c r="AD5" t="n">
-        <v>680281.8458703799</v>
+        <v>755894.1338362086</v>
       </c>
       <c r="AE5" t="n">
-        <v>930791.6334367595</v>
+        <v>1034247.701610324</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.309383076618427e-06</v>
+        <v>2.696390910021507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>841958.1863158167</v>
+        <v>935540.5525443999</v>
       </c>
     </row>
     <row r="6">
@@ -56486,28 +56486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>657.3331581350112</v>
+        <v>732.9454461008398</v>
       </c>
       <c r="AB6" t="n">
-        <v>899.3922264525785</v>
+        <v>1002.848294626143</v>
       </c>
       <c r="AC6" t="n">
-        <v>813.5554946648615</v>
+        <v>907.1378608934447</v>
       </c>
       <c r="AD6" t="n">
-        <v>657333.1581350112</v>
+        <v>732945.4461008399</v>
       </c>
       <c r="AE6" t="n">
-        <v>899392.2264525784</v>
+        <v>1002848.294626143</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329018237916436e-06</v>
+        <v>2.736825272879998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.79803240740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>813555.4946648615</v>
+        <v>907137.8608934446</v>
       </c>
     </row>
     <row r="7">
@@ -56592,28 +56592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>636.075766858635</v>
+        <v>711.6880548244637</v>
       </c>
       <c r="AB7" t="n">
-        <v>870.3069258983248</v>
+        <v>973.7629940718895</v>
       </c>
       <c r="AC7" t="n">
-        <v>787.2460543740301</v>
+        <v>880.8284206026134</v>
       </c>
       <c r="AD7" t="n">
-        <v>636075.766858635</v>
+        <v>711688.0548244638</v>
       </c>
       <c r="AE7" t="n">
-        <v>870306.9258983248</v>
+        <v>973762.9940718894</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.345126124729773e-06</v>
+        <v>2.769995977739959e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.64467592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>787246.0543740301</v>
+        <v>880828.4206026134</v>
       </c>
     </row>
     <row r="8">
@@ -56698,28 +56698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>618.6702932043827</v>
+        <v>694.2825811702115</v>
       </c>
       <c r="AB8" t="n">
-        <v>846.4919889692729</v>
+        <v>949.9480571428377</v>
       </c>
       <c r="AC8" t="n">
-        <v>765.7039816010131</v>
+        <v>859.2863478295961</v>
       </c>
       <c r="AD8" t="n">
-        <v>618670.2932043826</v>
+        <v>694282.5811702115</v>
       </c>
       <c r="AE8" t="n">
-        <v>846491.9889692729</v>
+        <v>949948.0571428377</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.354532190022232e-06</v>
+        <v>2.789365732402709e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.55787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>765703.9816010131</v>
+        <v>859286.3478295961</v>
       </c>
     </row>
     <row r="9">
@@ -56804,28 +56804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>610.8767427419872</v>
+        <v>675.8457654426164</v>
       </c>
       <c r="AB9" t="n">
-        <v>835.8285093994434</v>
+        <v>924.7219924894372</v>
       </c>
       <c r="AC9" t="n">
-        <v>756.0582095550404</v>
+        <v>836.4678233817124</v>
       </c>
       <c r="AD9" t="n">
-        <v>610876.7427419872</v>
+        <v>675845.7654426164</v>
       </c>
       <c r="AE9" t="n">
-        <v>835828.5093994434</v>
+        <v>924721.9924894372</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.358647343587683e-06</v>
+        <v>2.797840000067663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.52025462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>756058.2095550405</v>
+        <v>836467.8233817124</v>
       </c>
     </row>
     <row r="10">
@@ -56910,28 +56910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>614.3233569676624</v>
+        <v>679.2923796682917</v>
       </c>
       <c r="AB10" t="n">
-        <v>840.5443190369006</v>
+        <v>929.4378021268942</v>
       </c>
       <c r="AC10" t="n">
-        <v>760.323948939379</v>
+        <v>840.7335627660509</v>
       </c>
       <c r="AD10" t="n">
-        <v>614323.3569676625</v>
+        <v>679292.3796682917</v>
       </c>
       <c r="AE10" t="n">
-        <v>840544.3190369005</v>
+        <v>929437.8021268942</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.358529767771527e-06</v>
+        <v>2.797597878134378e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.52025462962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>760323.948939379</v>
+        <v>840733.5627660509</v>
       </c>
     </row>
   </sheetData>
@@ -57207,28 +57207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.819686316593</v>
+        <v>1467.086200929534</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.774750530288</v>
+        <v>2007.332063387034</v>
       </c>
       <c r="AC2" t="n">
-        <v>1690.421511181512</v>
+        <v>1815.75510856562</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365819.686316593</v>
+        <v>1467086.200929534</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868774.750530288</v>
+        <v>2007332.063387034</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.889054283332527e-07</v>
+        <v>1.761085311491349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.42303240740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1690421.511181512</v>
+        <v>1815755.10856562</v>
       </c>
     </row>
     <row r="3">
@@ -57313,28 +57313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>967.0570629434421</v>
+        <v>1057.062180719059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1323.170137065793</v>
+        <v>1446.319109951947</v>
       </c>
       <c r="AC3" t="n">
-        <v>1196.888636265184</v>
+        <v>1308.284444019753</v>
       </c>
       <c r="AD3" t="n">
-        <v>967057.0629434421</v>
+        <v>1057062.180719059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1323170.137065793</v>
+        <v>1446319.109951947</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.105910421152717e-06</v>
+        <v>2.191012155442818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.80902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1196888.636265184</v>
+        <v>1308284.444019753</v>
       </c>
     </row>
     <row r="4">
@@ -57419,28 +57419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.2288405155456</v>
+        <v>942.0579918169607</v>
       </c>
       <c r="AB4" t="n">
-        <v>1181.107782562053</v>
+        <v>1288.965305069361</v>
       </c>
       <c r="AC4" t="n">
-        <v>1068.384513489514</v>
+        <v>1165.948265427708</v>
       </c>
       <c r="AD4" t="n">
-        <v>863228.8405155456</v>
+        <v>942057.9918169606</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181107.782562053</v>
+        <v>1288965.30506936</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186395841024725e-06</v>
+        <v>2.35046859052341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80497685185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1068384.513489514</v>
+        <v>1165948.265427708</v>
       </c>
     </row>
     <row r="5">
@@ -57525,28 +57525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>819.3648049021352</v>
+        <v>898.0233640029579</v>
       </c>
       <c r="AB5" t="n">
-        <v>1121.091073891109</v>
+        <v>1228.71518462357</v>
       </c>
       <c r="AC5" t="n">
-        <v>1014.095715260145</v>
+        <v>1111.448331915688</v>
       </c>
       <c r="AD5" t="n">
-        <v>819364.8049021353</v>
+        <v>898023.3640029579</v>
       </c>
       <c r="AE5" t="n">
-        <v>1121091.073891109</v>
+        <v>1228715.18462357</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226751751269973e-06</v>
+        <v>2.430421078717829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.35069444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1014095.715260145</v>
+        <v>1111448.331915688</v>
       </c>
     </row>
     <row r="6">
@@ -57631,28 +57631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>790.409563478357</v>
+        <v>857.9774969595494</v>
       </c>
       <c r="AB6" t="n">
-        <v>1081.473235159999</v>
+        <v>1173.922662635812</v>
       </c>
       <c r="AC6" t="n">
-        <v>978.2589474535471</v>
+        <v>1061.885131324654</v>
       </c>
       <c r="AD6" t="n">
-        <v>790409.5634783569</v>
+        <v>857977.4969595494</v>
       </c>
       <c r="AE6" t="n">
-        <v>1081473.235159999</v>
+        <v>1173922.662635812</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.252448221468209e-06</v>
+        <v>2.481330517203475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.07581018518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>978258.947453547</v>
+        <v>1061885.131324654</v>
       </c>
     </row>
     <row r="7">
@@ -57737,28 +57737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>759.5694287721197</v>
+        <v>838.3132392189631</v>
       </c>
       <c r="AB7" t="n">
-        <v>1039.276402284207</v>
+        <v>1147.017157669317</v>
       </c>
       <c r="AC7" t="n">
-        <v>940.0893210837929</v>
+        <v>1037.547449990048</v>
       </c>
       <c r="AD7" t="n">
-        <v>759569.4287721198</v>
+        <v>838313.2392189631</v>
       </c>
       <c r="AE7" t="n">
-        <v>1039276.402284207</v>
+        <v>1147017.157669317</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.26812646429841e-06</v>
+        <v>2.512392002799342e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.91377314814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>940089.321083793</v>
+        <v>1037547.449990048</v>
       </c>
     </row>
     <row r="8">
@@ -57843,28 +57843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>741.1796880896102</v>
+        <v>819.9234985364534</v>
       </c>
       <c r="AB8" t="n">
-        <v>1014.114747784297</v>
+        <v>1121.855503169407</v>
       </c>
       <c r="AC8" t="n">
-        <v>917.3290595747504</v>
+        <v>1014.787188481006</v>
       </c>
       <c r="AD8" t="n">
-        <v>741179.6880896102</v>
+        <v>819923.4985364533</v>
       </c>
       <c r="AE8" t="n">
-        <v>1014114.747784297</v>
+        <v>1121855.503169407</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28137090047988e-06</v>
+        <v>2.538631669331592e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.7806712962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>917329.0595747505</v>
+        <v>1014787.188481006</v>
       </c>
     </row>
     <row r="9">
@@ -57949,28 +57949,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>726.2688286878158</v>
+        <v>805.0126391346591</v>
       </c>
       <c r="AB9" t="n">
-        <v>993.7130521300716</v>
+        <v>1101.453807515182</v>
       </c>
       <c r="AC9" t="n">
-        <v>898.8744731198049</v>
+        <v>996.33260202606</v>
       </c>
       <c r="AD9" t="n">
-        <v>726268.8286878158</v>
+        <v>805012.6391346591</v>
       </c>
       <c r="AE9" t="n">
-        <v>993713.0521300716</v>
+        <v>1101453.807515182</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291049526920184e-06</v>
+        <v>2.557806810259005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.68518518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>898874.4731198049</v>
+        <v>996332.60202606</v>
       </c>
     </row>
     <row r="10">
@@ -58055,28 +58055,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>711.9670109196471</v>
+        <v>790.7108213664904</v>
       </c>
       <c r="AB10" t="n">
-        <v>974.1446741079936</v>
+        <v>1081.885429493104</v>
       </c>
       <c r="AC10" t="n">
-        <v>881.1736736317631</v>
+        <v>978.631802538018</v>
       </c>
       <c r="AD10" t="n">
-        <v>711967.0109196472</v>
+        <v>790710.8213664904</v>
       </c>
       <c r="AE10" t="n">
-        <v>974144.6741079936</v>
+        <v>1081885.429493104</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.298747147948731e-06</v>
+        <v>2.573057214739287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.6099537037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>881173.6736317631</v>
+        <v>978631.802538018</v>
       </c>
     </row>
     <row r="11">
@@ -58161,28 +58161,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>700.1929206015654</v>
+        <v>778.9367310484087</v>
       </c>
       <c r="AB11" t="n">
-        <v>958.0348442985893</v>
+        <v>1065.775599683699</v>
       </c>
       <c r="AC11" t="n">
-        <v>866.60134336908</v>
+        <v>964.0594722753351</v>
       </c>
       <c r="AD11" t="n">
-        <v>700192.9206015654</v>
+        <v>778936.7310484087</v>
       </c>
       <c r="AE11" t="n">
-        <v>958034.8442985893</v>
+        <v>1065775.599683699</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.303897762019302e-06</v>
+        <v>2.583261529501828e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.56076388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>866601.34336908</v>
+        <v>964059.4722753351</v>
       </c>
     </row>
     <row r="12">
@@ -58267,28 +58267,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>687.2910393393862</v>
+        <v>754.9442241665993</v>
       </c>
       <c r="AB12" t="n">
-        <v>940.3819211648459</v>
+        <v>1032.947993293307</v>
       </c>
       <c r="AC12" t="n">
-        <v>850.6331904431879</v>
+        <v>934.3648865650073</v>
       </c>
       <c r="AD12" t="n">
-        <v>687291.0393393862</v>
+        <v>754944.2241665992</v>
       </c>
       <c r="AE12" t="n">
-        <v>940381.9211648459</v>
+        <v>1032947.993293307</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.308369174234414e-06</v>
+        <v>2.592120220339638e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.51736111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>850633.190443188</v>
+        <v>934364.8865650073</v>
       </c>
     </row>
     <row r="13">
@@ -58373,28 +58373,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>683.2984875105926</v>
+        <v>750.7810801372135</v>
       </c>
       <c r="AB13" t="n">
-        <v>934.9191356137351</v>
+        <v>1027.25179596735</v>
       </c>
       <c r="AC13" t="n">
-        <v>845.6917654780077</v>
+        <v>929.2123263171758</v>
       </c>
       <c r="AD13" t="n">
-        <v>683298.4875105927</v>
+        <v>750781.0801372135</v>
       </c>
       <c r="AE13" t="n">
-        <v>934919.1356137351</v>
+        <v>1027251.79596735</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.310802980883146e-06</v>
+        <v>2.596942039403257e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.49421296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>845691.7654780077</v>
+        <v>929212.3263171758</v>
       </c>
     </row>
     <row r="14">
@@ -58479,28 +58479,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>685.8444467001116</v>
+        <v>753.3270393267322</v>
       </c>
       <c r="AB14" t="n">
-        <v>938.4026292966272</v>
+        <v>1030.735289650242</v>
       </c>
       <c r="AC14" t="n">
-        <v>848.8427994129186</v>
+        <v>932.3633602520867</v>
       </c>
       <c r="AD14" t="n">
-        <v>685844.4467001116</v>
+        <v>753327.0393267323</v>
       </c>
       <c r="AE14" t="n">
-        <v>938402.6292966272</v>
+        <v>1030735.289650242</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.310859581037767e-06</v>
+        <v>2.597054174730318e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.49421296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>848842.7994129185</v>
+        <v>932363.3602520868</v>
       </c>
     </row>
   </sheetData>
